--- a/100runs/run088/NotionalETEOutput088.xlsx
+++ b/100runs/run088/NotionalETEOutput088.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="18">
   <si>
     <t>uniqueid</t>
   </si>
@@ -49,28 +49,25 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_SOMERSAULT_State_Update</t>
-  </si>
-  <si>
     <t>Missile_HELLMASKER_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT_471.MISSILE_SOMERSAULT_471</t>
+    <t>Missile_BRAVER_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER_81.MISSILE_HELLMASKER_81</t>
+    <t>MISSILE_HELLMASKER_379.MISSILE_HELLMASKER_379</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER_69.MISSILE_HELLMASKER_69</t>
+    <t>MISSILE_BRAVER_255.MISSILE_BRAVER_255</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER_339.MISSILE_HELLMASKER_339</t>
-  </si>
-  <si>
-    <t>MISSILE_SOMERSAULT</t>
+    <t>MISSILE_HELLMASKER_86.MISSILE_HELLMASKER_86</t>
   </si>
   <si>
     <t>MISSILE_HELLMASKER</t>
+  </si>
+  <si>
+    <t>MISSILE_BRAVER</t>
   </si>
 </sst>
 </file>
@@ -428,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K213"/>
+  <dimension ref="A1:K160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -480,28 +477,28 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>159.2426708070354</v>
+        <v>1116578.560513805</v>
       </c>
       <c r="G2">
-        <v>-59.93364542586592</v>
+        <v>4841134.814679394</v>
       </c>
       <c r="H2">
-        <v>756.8455778468849</v>
+        <v>3985225.591386364</v>
       </c>
       <c r="I2">
-        <v>-380.7780570679486</v>
+        <v>1114859.807307457</v>
       </c>
       <c r="J2">
-        <v>1863.637544361012</v>
+        <v>4843223.552012097</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984366.108140025</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -515,28 +512,28 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>159.2426708070354</v>
+        <v>1116578.560513805</v>
       </c>
       <c r="G3">
-        <v>-59.93364542586592</v>
+        <v>4841134.814679394</v>
       </c>
       <c r="H3">
-        <v>756.8455778468849</v>
+        <v>3985225.591386364</v>
       </c>
       <c r="I3">
-        <v>-373.2604843094854</v>
+        <v>1114889.421262745</v>
       </c>
       <c r="J3">
-        <v>1818.303081146969</v>
+        <v>4843174.900421076</v>
       </c>
       <c r="K3">
-        <v>319.1334784544578</v>
+        <v>3984669.903810771</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,28 +547,28 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>159.2426708070354</v>
+        <v>1116578.560513805</v>
       </c>
       <c r="G4">
-        <v>-59.93364542586592</v>
+        <v>4841134.814679394</v>
       </c>
       <c r="H4">
-        <v>756.8455778468849</v>
+        <v>3985225.591386364</v>
       </c>
       <c r="I4">
-        <v>-365.5577982378853</v>
+        <v>1114919.764434438</v>
       </c>
       <c r="J4">
-        <v>1772.968617932926</v>
+        <v>4843126.248830053</v>
       </c>
       <c r="K4">
-        <v>622.3534988178274</v>
+        <v>3984958.550836823</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,28 +582,28 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>159.2426708070354</v>
+        <v>1116578.560513805</v>
       </c>
       <c r="G5">
-        <v>-59.93364542586592</v>
+        <v>4841134.814679394</v>
       </c>
       <c r="H5">
-        <v>756.8455778468849</v>
+        <v>3985225.591386364</v>
       </c>
       <c r="I5">
-        <v>-357.6654406081131</v>
+        <v>1114950.854778819</v>
       </c>
       <c r="J5">
-        <v>1727.634154718882</v>
+        <v>4843077.597239031</v>
       </c>
       <c r="K5">
-        <v>909.6600610901108</v>
+        <v>3985232.049218183</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,28 +617,28 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>159.2426708070354</v>
+        <v>1116578.560513805</v>
       </c>
       <c r="G6">
-        <v>-59.93364542586592</v>
+        <v>4841134.814679394</v>
       </c>
       <c r="H6">
-        <v>756.8455778468849</v>
+        <v>3985225.591386364</v>
       </c>
       <c r="I6">
-        <v>-349.5787409325438</v>
+        <v>1114982.710694327</v>
       </c>
       <c r="J6">
-        <v>1682.299691504839</v>
+        <v>4843028.94564801</v>
       </c>
       <c r="K6">
-        <v>1181.053165271307</v>
+        <v>3985490.398954851</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,28 +652,28 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>159.2426708070354</v>
+        <v>1116578.560513805</v>
       </c>
       <c r="G7">
-        <v>-59.93364542586592</v>
+        <v>4841134.814679394</v>
       </c>
       <c r="H7">
-        <v>756.8455778468849</v>
+        <v>3985225.591386364</v>
       </c>
       <c r="I7">
-        <v>-341.2929137170907</v>
+        <v>1115015.351032448</v>
       </c>
       <c r="J7">
-        <v>1636.965228290796</v>
+        <v>4842980.294056988</v>
       </c>
       <c r="K7">
-        <v>1436.532811361417</v>
+        <v>3985733.600046826</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,28 +687,28 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>159.2426708070354</v>
+        <v>1116578.560513805</v>
       </c>
       <c r="G8">
-        <v>-59.93364542586592</v>
+        <v>4841134.814679394</v>
       </c>
       <c r="H8">
-        <v>756.8455778468849</v>
+        <v>3985225.591386364</v>
       </c>
       <c r="I8">
-        <v>-332.8030556292784</v>
+        <v>1115048.795108866</v>
       </c>
       <c r="J8">
-        <v>1591.630765076753</v>
+        <v>4842931.642465966</v>
       </c>
       <c r="K8">
-        <v>1676.098999360439</v>
+        <v>3985961.652494107</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -725,28 +722,28 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>159.2426708070354</v>
+        <v>1116578.560513805</v>
       </c>
       <c r="G9">
-        <v>-59.93364542586592</v>
+        <v>4841134.814679394</v>
       </c>
       <c r="H9">
-        <v>756.8455778468849</v>
+        <v>3985225.591386364</v>
       </c>
       <c r="I9">
-        <v>-324.1041425965799</v>
+        <v>1115083.062714898</v>
       </c>
       <c r="J9">
-        <v>1546.296301862709</v>
+        <v>4842882.990874943</v>
       </c>
       <c r="K9">
-        <v>1899.751729268375</v>
+        <v>3986174.556296697</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -760,28 +757,28 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>159.2426708070354</v>
+        <v>1116578.560513805</v>
       </c>
       <c r="G10">
-        <v>-50.03691354492496</v>
+        <v>4841151.327533572</v>
       </c>
       <c r="H10">
-        <v>756.8455778468849</v>
+        <v>3985225.591386364</v>
       </c>
       <c r="I10">
-        <v>-315.1910268333046</v>
+        <v>1115118.174129203</v>
       </c>
       <c r="J10">
-        <v>1500.961838648666</v>
+        <v>4842834.339283922</v>
       </c>
       <c r="K10">
-        <v>2107.491001085224</v>
+        <v>3986372.311454593</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -795,28 +792,28 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>123.5908892323025</v>
+        <v>1116529.879947564</v>
       </c>
       <c r="G11">
-        <v>-40.140181663984</v>
+        <v>4841167.840387749</v>
       </c>
       <c r="H11">
-        <v>932.4286590512248</v>
+        <v>3985424.845656295</v>
       </c>
       <c r="I11">
-        <v>-306.0584337942747</v>
+        <v>1115154.150129784</v>
       </c>
       <c r="J11">
-        <v>1455.627375434623</v>
+        <v>4842785.6876929</v>
       </c>
       <c r="K11">
-        <v>2299.316814810984</v>
+        <v>3986554.917967797</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -830,28 +827,28 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>102.6472560435746</v>
+        <v>1116501.282556979</v>
       </c>
       <c r="G12">
-        <v>-30.24344978304304</v>
+        <v>4841184.353241927</v>
       </c>
       <c r="H12">
-        <v>1037.014921876208</v>
+        <v>3985543.531689717</v>
       </c>
       <c r="I12">
-        <v>-296.7009590534902</v>
+        <v>1115191.012006281</v>
       </c>
       <c r="J12">
-        <v>1410.292912220579</v>
+        <v>4842737.036101878</v>
       </c>
       <c r="K12">
-        <v>2475.229170445659</v>
+        <v>3986722.375836308</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -865,28 +862,28 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>89.42609827217906</v>
+        <v>1116483.229786031</v>
       </c>
       <c r="G13">
-        <v>-20.34671790210208</v>
+        <v>4841200.866096104</v>
       </c>
       <c r="H13">
-        <v>1111.755655201951</v>
+        <v>3985628.34857612</v>
       </c>
       <c r="I13">
-        <v>-287.1130651059327</v>
+        <v>1115228.781572575</v>
       </c>
       <c r="J13">
-        <v>1364.958449006536</v>
+        <v>4842688.384510856</v>
       </c>
       <c r="K13">
-        <v>2635.228067989248</v>
+        <v>3986874.685060126</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -900,28 +897,28 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>80.20571651023796</v>
+        <v>1116470.639856852</v>
       </c>
       <c r="G14">
-        <v>-10.44998602116112</v>
+        <v>4841217.378950281</v>
       </c>
       <c r="H14">
-        <v>1169.956224200329</v>
+        <v>3985694.395440122</v>
       </c>
       <c r="I14">
-        <v>-277.2890780906174</v>
+        <v>1115267.481179692</v>
       </c>
       <c r="J14">
-        <v>1319.623985792493</v>
+        <v>4842639.732919835</v>
       </c>
       <c r="K14">
-        <v>2779.313507441749</v>
+        <v>3987011.845639251</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -935,28 +932,28 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>73.3270355969005</v>
+        <v>1116461.247392659</v>
       </c>
       <c r="G15">
-        <v>-0.5532541402201646</v>
+        <v>4841233.891804459</v>
       </c>
       <c r="H15">
-        <v>1217.627004657632</v>
+        <v>3985748.492944801</v>
       </c>
       <c r="I15">
-        <v>-267.2231844329523</v>
+        <v>1115307.133729031</v>
       </c>
       <c r="J15">
-        <v>1274.28952257845</v>
+        <v>4842591.081328813</v>
       </c>
       <c r="K15">
-        <v>2907.485488803162</v>
+        <v>3987133.857573684</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -970,28 +967,28 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>67.94886770198204</v>
+        <v>1116453.903797279</v>
       </c>
       <c r="G16">
-        <v>9.343477740720799</v>
+        <v>4841250.404658636</v>
       </c>
       <c r="H16">
-        <v>1258.000675906653</v>
+        <v>3985794.309582338</v>
       </c>
       <c r="I16">
-        <v>-256.9094274044195</v>
+        <v>1115347.762685917</v>
       </c>
       <c r="J16">
-        <v>1228.955059364406</v>
+        <v>4842542.42973779</v>
       </c>
       <c r="K16">
-        <v>3019.74401207349</v>
+        <v>3987240.720863424</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1005,28 +1002,28 @@
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>63.59753827774809</v>
+        <v>1116447.962293912</v>
       </c>
       <c r="G17">
-        <v>19.24020962166176</v>
+        <v>4841266.917512814</v>
       </c>
       <c r="H17">
-        <v>1293.017482573808</v>
+        <v>3985834.047170948</v>
       </c>
       <c r="I17">
-        <v>-246.3417035975416</v>
+        <v>1115389.392093489</v>
       </c>
       <c r="J17">
-        <v>1183.620596150363</v>
+        <v>4842493.778146769</v>
       </c>
       <c r="K17">
-        <v>3116.089077252729</v>
+        <v>3987332.435508471</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1040,28 +1037,28 @@
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>59.98438439010123</v>
+        <v>1116443.028729041</v>
       </c>
       <c r="G18">
-        <v>29.13694150260271</v>
+        <v>4841283.430366991</v>
       </c>
       <c r="H18">
-        <v>1323.933857818379</v>
+        <v>3985869.131529509</v>
       </c>
       <c r="I18">
-        <v>-235.513759314047</v>
+        <v>1115432.046586924</v>
       </c>
       <c r="J18">
-        <v>1138.28613293632</v>
+        <v>4842445.126555747</v>
       </c>
       <c r="K18">
-        <v>3196.520684340883</v>
+        <v>3987409.001508826</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1075,28 +1072,28 @@
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>56.92250832637226</v>
+        <v>1116438.847904018</v>
       </c>
       <c r="G19">
-        <v>39.03367338354369</v>
+        <v>4841299.943221168</v>
       </c>
       <c r="H19">
-        <v>1351.610234929795</v>
+        <v>3985900.539090408</v>
       </c>
       <c r="I19">
-        <v>-224.4191868640974</v>
+        <v>1115475.751408019</v>
       </c>
       <c r="J19">
-        <v>1092.951669722276</v>
+        <v>4842396.474964726</v>
       </c>
       <c r="K19">
-        <v>3261.038833337949</v>
+        <v>3987470.418864488</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1110,28 +1107,28 @@
         <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>54.28500081522008</v>
+        <v>1116435.246531143</v>
       </c>
       <c r="G20">
-        <v>48.93040526448464</v>
+        <v>4841316.456075345</v>
       </c>
       <c r="H20">
-        <v>1376.661751847543</v>
+        <v>3985928.967921249</v>
       </c>
       <c r="I20">
-        <v>-213.0514207743872</v>
+        <v>1115520.532420125</v>
       </c>
       <c r="J20">
-        <v>1047.617206508233</v>
+        <v>4842347.823373703</v>
       </c>
       <c r="K20">
-        <v>3309.643524243928</v>
+        <v>3987516.687575457</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1145,28 +1142,28 @@
         <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>51.98232047339665</v>
+        <v>1116432.102346534</v>
       </c>
       <c r="G21">
-        <v>58.8271371454256</v>
+        <v>4841332.968929524</v>
       </c>
       <c r="H21">
-        <v>1399.543452115865</v>
+        <v>3985954.934412157</v>
       </c>
       <c r="I21">
-        <v>-201.403733902871</v>
+        <v>1115566.416123457</v>
       </c>
       <c r="J21">
-        <v>1002.28274329419</v>
+        <v>4842299.171782681</v>
       </c>
       <c r="K21">
-        <v>3342.33475705882</v>
+        <v>3987547.807641733</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1180,28 +1177,28 @@
         <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>49.94927136849767</v>
+        <v>1116429.326328696</v>
       </c>
       <c r="G22">
-        <v>68.72386902636656</v>
+        <v>4841349.4817837</v>
       </c>
       <c r="H22">
-        <v>1420.601431428709</v>
+        <v>3985978.83131763</v>
       </c>
       <c r="I22">
-        <v>-189.4692334578191</v>
+        <v>1115613.429670771</v>
       </c>
       <c r="J22">
-        <v>956.9482800801463</v>
+        <v>4842250.520191659</v>
       </c>
       <c r="K22">
-        <v>3359.112531782626</v>
+        <v>3987563.779063317</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1215,28 +1212,28 @@
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>48.13711930308069</v>
+        <v>1116426.851933735</v>
       </c>
       <c r="G23">
-        <v>78.62060090730752</v>
+        <v>4841365.994637878</v>
       </c>
       <c r="H23">
-        <v>1440.105061144051</v>
+        <v>3986000.964324257</v>
       </c>
       <c r="I23">
-        <v>-177.2408569188468</v>
+        <v>1115661.600883436</v>
       </c>
       <c r="J23">
-        <v>911.613816866103</v>
+        <v>4842201.868600638</v>
       </c>
       <c r="K23">
-        <v>3359.976848415344</v>
+        <v>3987564.601840208</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1250,28 +1247,28 @@
         <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>46.50861448094125</v>
+        <v>1116424.628299084</v>
       </c>
       <c r="G24">
-        <v>88.5173327882485</v>
+        <v>4841382.507492055</v>
       </c>
       <c r="H24">
-        <v>1458.268114280877</v>
+        <v>3986021.576024814</v>
       </c>
       <c r="I24">
-        <v>-164.7113678575026</v>
+        <v>1115710.958267896</v>
       </c>
       <c r="J24">
-        <v>866.2793536520596</v>
+        <v>4842153.217009615</v>
       </c>
       <c r="K24">
-        <v>3344.927706956976</v>
+        <v>3987550.275972405</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1285,28 +1282,28 @@
         <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>45.03473548336328</v>
+        <v>1116422.615797577</v>
       </c>
       <c r="G25">
-        <v>98.41406466918944</v>
+        <v>4841399.020346233</v>
       </c>
       <c r="H25">
-        <v>1475.263086198073</v>
+        <v>3986040.862169575</v>
       </c>
       <c r="I25">
-        <v>-151.8733516549412</v>
+        <v>1115761.53103254</v>
       </c>
       <c r="J25">
-        <v>820.9448904380164</v>
+        <v>4842104.565418594</v>
       </c>
       <c r="K25">
-        <v>3313.96510740752</v>
+        <v>3987520.801459911</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1320,28 +1317,28 @@
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>43.69249345118245</v>
+        <v>1116420.783039177</v>
       </c>
       <c r="G26">
-        <v>108.3107965501304</v>
+        <v>4841415.53320041</v>
       </c>
       <c r="H26">
-        <v>1491.231182114258</v>
+        <v>3986058.983000308</v>
       </c>
       <c r="I26">
-        <v>-138.7192111141501</v>
+        <v>1115813.349104988</v>
       </c>
       <c r="J26">
-        <v>775.610427223973</v>
+        <v>4842055.913827572</v>
       </c>
       <c r="K26">
-        <v>3267.089049766977</v>
+        <v>3987476.178302723</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1355,28 +1352,28 @@
         <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>42.46341169205514</v>
+        <v>1116419.104794967</v>
       </c>
       <c r="G27">
-        <v>118.2075284310714</v>
+        <v>4841432.046054587</v>
       </c>
       <c r="H27">
-        <v>1506.289455442427</v>
+        <v>3986076.071350949</v>
       </c>
       <c r="I27">
-        <v>-125.2411619641295</v>
+        <v>1115866.443149798</v>
       </c>
       <c r="J27">
-        <v>730.2759640099297</v>
+        <v>4842007.26223655</v>
       </c>
       <c r="K27">
-        <v>3204.299534035348</v>
+        <v>3987416.406500843</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1390,28 +1387,28 @@
         <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>41.33244839745424</v>
+        <v>1116417.560526178</v>
       </c>
       <c r="G28">
-        <v>128.1042603120123</v>
+        <v>4841448.558908764</v>
       </c>
       <c r="H28">
-        <v>1520.536019876028</v>
+        <v>3986092.238562367</v>
       </c>
       <c r="I28">
-        <v>-111.4312282533675</v>
+        <v>1115920.844586615</v>
       </c>
       <c r="J28">
-        <v>684.9415007958864</v>
+        <v>4841958.610645528</v>
       </c>
       <c r="K28">
-        <v>3125.596560212633</v>
+        <v>3987341.486054271</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1425,28 +1422,28 @@
         <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>40.28721764530271</v>
+        <v>1116416.133320506</v>
       </c>
       <c r="G29">
-        <v>138.0009921929533</v>
+        <v>4841465.071762943</v>
       </c>
       <c r="H29">
-        <v>1534.053927163153</v>
+        <v>3986107.57888291</v>
       </c>
       <c r="I29">
-        <v>-97.2812376298839</v>
+        <v>1115976.585608766</v>
       </c>
       <c r="J29">
-        <v>639.6070375818431</v>
+        <v>4841909.959054506</v>
       </c>
       <c r="K29">
-        <v>3030.980128298829</v>
+        <v>3987251.416963005</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1460,28 +1457,28 @@
         <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>39.31741582603485</v>
+        <v>1116414.809108935</v>
       </c>
       <c r="G30">
-        <v>147.8977240738942</v>
+        <v>4841481.584617119</v>
       </c>
       <c r="H30">
-        <v>1546.914100586258</v>
+        <v>3986122.172797364</v>
       </c>
       <c r="I30">
-        <v>-82.78281650504975</v>
+        <v>1116033.699202307</v>
       </c>
       <c r="J30">
-        <v>594.2725743677997</v>
+        <v>4841861.307463485</v>
       </c>
       <c r="K30">
-        <v>2920.450238293939</v>
+        <v>3987146.199227047</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1495,28 +1492,28 @@
         <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>38.41439244123629</v>
+        <v>1116413.576079679</v>
       </c>
       <c r="G31">
-        <v>157.7944559548352</v>
+        <v>4841498.097471297</v>
       </c>
       <c r="H31">
-        <v>1559.177587318813</v>
+        <v>3986136.089582961</v>
       </c>
       <c r="I31">
-        <v>-67.92738509831945</v>
+        <v>1116092.219165545</v>
       </c>
       <c r="J31">
-        <v>548.9381111537565</v>
+        <v>4841812.655872462</v>
       </c>
       <c r="K31">
-        <v>2794.006890197962</v>
+        <v>3987025.832846396</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1530,28 +1527,28 @@
         <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>37.5708242318482</v>
+        <v>1116412.424233228</v>
       </c>
       <c r="G32">
-        <v>167.6911878357762</v>
+        <v>4841514.610325474</v>
       </c>
       <c r="H32">
-        <v>1570.897311046146</v>
+        <v>3986149.389298282</v>
       </c>
       <c r="I32">
-        <v>-52.70615235994472</v>
+        <v>1116152.18012904</v>
       </c>
       <c r="J32">
-        <v>503.6036479397131</v>
+        <v>4841764.004281441</v>
       </c>
       <c r="K32">
-        <v>2651.650084010897</v>
+        <v>3986890.317821052</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1565,28 +1562,28 @@
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>36.78046448463087</v>
+        <v>1116411.345040033</v>
       </c>
       <c r="G33">
-        <v>177.5879197167171</v>
+        <v>4841531.123179652</v>
       </c>
       <c r="H33">
-        <v>1582.119452269339</v>
+        <v>3986162.124349638</v>
       </c>
       <c r="I33">
-        <v>-37.11011076866478</v>
+        <v>1116213.617576099</v>
       </c>
       <c r="J33">
-        <v>458.26918472567</v>
+        <v>4841715.352690419</v>
       </c>
       <c r="K33">
-        <v>2493.379819732747</v>
+        <v>3986739.654151016</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1600,28 +1597,28 @@
         <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>36.03794785482231</v>
+        <v>1116410.331174011</v>
       </c>
       <c r="G34">
-        <v>187.4846515976581</v>
+        <v>4841547.636033829</v>
       </c>
       <c r="H34">
-        <v>1592.884547348106</v>
+        <v>3986174.34073829</v>
       </c>
       <c r="I34">
-        <v>-21.13003100129471</v>
+        <v>1116276.56786377</v>
       </c>
       <c r="J34">
-        <v>412.9347215116265</v>
+        <v>4841666.701099397</v>
       </c>
       <c r="K34">
-        <v>2319.196097363509</v>
+        <v>3986573.841836287</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1635,28 +1632,28 @@
         <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>35.33863674431958</v>
+        <v>1116409.376302772</v>
       </c>
       <c r="G35">
-        <v>197.381383478599</v>
+        <v>4841564.148888006</v>
       </c>
       <c r="H35">
-        <v>1603.22837237221</v>
+        <v>3986186.079063471</v>
       </c>
       <c r="I35">
-        <v>-4.756456471057044</v>
+        <v>1116341.068244361</v>
       </c>
       <c r="J35">
-        <v>367.6002582975832</v>
+        <v>4841618.049508374</v>
       </c>
       <c r="K35">
-        <v>2129.098916903184</v>
+        <v>3986392.880876864</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1670,28 +1667,28 @@
         <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>34.67849917296427</v>
+        <v>1116408.474920868</v>
       </c>
       <c r="G36">
-        <v>207.27811535954</v>
+        <v>4841580.661742183</v>
       </c>
       <c r="H36">
-        <v>1613.182660514067</v>
+        <v>3986197.375336453</v>
       </c>
       <c r="I36">
-        <v>12.02030226857541</v>
+        <v>1116407.156887486</v>
       </c>
       <c r="J36">
-        <v>322.26579508354</v>
+        <v>4841569.397917353</v>
       </c>
       <c r="K36">
-        <v>1923.088278351772</v>
+        <v>3986196.77127275</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1705,28 +1702,28 @@
         <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>34.0540107898883</v>
+        <v>1116407.622215989</v>
       </c>
       <c r="G37">
-        <v>217.174847240481</v>
+        <v>4841597.174596361</v>
       </c>
       <c r="H37">
-        <v>1622.775689145523</v>
+        <v>3986208.261646816</v>
       </c>
       <c r="I37">
-        <v>29.21017325783627</v>
+        <v>1116474.872902646</v>
       </c>
       <c r="J37">
-        <v>276.9313318694966</v>
+        <v>4841520.746326331</v>
       </c>
       <c r="K37">
-        <v>1701.164181709274</v>
+        <v>3985985.513023943</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1740,28 +1737,28 @@
         <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>33.46207558340596</v>
+        <v>1116406.813960699</v>
       </c>
       <c r="G38">
-        <v>227.0715791214219</v>
+        <v>4841613.687450538</v>
       </c>
       <c r="H38">
-        <v>1632.032764100734</v>
+        <v>3986218.766711992</v>
       </c>
       <c r="I38">
-        <v>46.82332900581649</v>
+        <v>1116544.256362383</v>
       </c>
       <c r="J38">
-        <v>231.5968686554534</v>
+        <v>4841472.094735309</v>
       </c>
       <c r="K38">
-        <v>1463.326626975689</v>
+        <v>3985759.106130443</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1775,28 +1772,28 @@
         <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>32.89996121534165</v>
+        <v>1116406.046424141</v>
       </c>
       <c r="G39">
-        <v>236.9683110023629</v>
+        <v>4841630.200304716</v>
       </c>
       <c r="H39">
-        <v>1640.97662197733</v>
+        <v>3986228.916333808</v>
       </c>
       <c r="I39">
-        <v>64.87019251028438</v>
+        <v>1116615.348325984</v>
       </c>
       <c r="J39">
-        <v>186.26240544141</v>
+        <v>4841423.443144287</v>
       </c>
       <c r="K39">
-        <v>1209.575614151015</v>
+        <v>3985517.550592249</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1810,28 +1807,28 @@
         <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>32.36524589639883</v>
+        <v>1116405.316299492</v>
       </c>
       <c r="G40">
-        <v>246.8650428833038</v>
+        <v>4841646.713158893</v>
       </c>
       <c r="H40">
-        <v>1649.627766578735</v>
+        <v>3986238.733780283</v>
       </c>
       <c r="I40">
-        <v>83.36144342573996</v>
+        <v>1116688.190863785</v>
       </c>
       <c r="J40">
-        <v>140.9279422273667</v>
+        <v>4841374.791553265</v>
       </c>
       <c r="K40">
-        <v>939.9111432352557</v>
+        <v>3985260.846409364</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1845,28 +1842,28 @@
         <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>31.85577444550594</v>
+        <v>1116404.62064397</v>
       </c>
       <c r="G41">
-        <v>256.7617747642448</v>
+        <v>4841663.22601307</v>
       </c>
       <c r="H41">
-        <v>1658.004752026248</v>
+        <v>3986248.240106907</v>
       </c>
       <c r="I41">
-        <v>102.3080243833494</v>
+        <v>1116762.827082066</v>
       </c>
       <c r="J41">
-        <v>95.59347901332347</v>
+        <v>4841326.139962244</v>
       </c>
       <c r="K41">
-        <v>654.3332142284097</v>
+        <v>3984988.993581785</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1880,28 +1877,28 @@
         <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>31.36962171445871</v>
+        <v>1116403.956828891</v>
       </c>
       <c r="G42">
-        <v>266.6585066451858</v>
+        <v>4841679.738867248</v>
       </c>
       <c r="H42">
-        <v>1666.124422374148</v>
+        <v>3986257.454428561</v>
       </c>
       <c r="I42">
-        <v>121.7211474665056</v>
+        <v>1116839.301148558</v>
       </c>
       <c r="J42">
-        <v>50.25901579928009</v>
+        <v>4841277.488371222</v>
       </c>
       <c r="K42">
-        <v>352.8418271304759</v>
+        <v>3984701.992109514</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1915,28 +1912,28 @@
         <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>30.90506196234121</v>
+        <v>1116403.322497848</v>
       </c>
       <c r="G43">
-        <v>276.5552385261267</v>
+        <v>4841696.251721426</v>
       </c>
       <c r="H43">
-        <v>1674.002115508712</v>
+        <v>3986266.394150906</v>
       </c>
       <c r="I43">
-        <v>141.6123008458386</v>
+        <v>1116917.658318582</v>
       </c>
       <c r="J43">
-        <v>4.924552585236699</v>
+        <v>4841228.8367802</v>
       </c>
       <c r="K43">
-        <v>35.43698194145534</v>
+        <v>3984399.841992551</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1950,28 +1947,28 @@
         <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>30.4605430690184</v>
+        <v>1116402.715531506</v>
       </c>
       <c r="G44">
-        <v>286.4519704070677</v>
+        <v>4841712.764575602</v>
       </c>
       <c r="H44">
-        <v>1681.651837535068</v>
+        <v>3986275.075168273</v>
       </c>
       <c r="I44">
-        <v>161.9932555776119</v>
+        <v>1116997.944961831</v>
       </c>
       <c r="J44">
-        <v>-40.40991062880648</v>
+        <v>4841180.185189178</v>
       </c>
       <c r="K44">
-        <v>-297.8813213386512</v>
+        <v>3984082.543230894</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1985,28 +1982,28 @@
         <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>30.03466470950685</v>
+        <v>1116402.134017799</v>
       </c>
       <c r="G45">
-        <v>296.3487022880086</v>
+        <v>4841729.27742978</v>
       </c>
       <c r="H45">
-        <v>1689.086412633902</v>
+        <v>3986283.512033736</v>
       </c>
       <c r="I45">
-        <v>182.8760725695207</v>
+        <v>1117080.208589807</v>
       </c>
       <c r="J45">
-        <v>-85.74437384284987</v>
+        <v>4841131.533598157</v>
       </c>
       <c r="K45">
-        <v>-647.1130827098457</v>
+        <v>3983750.095824545</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2020,28 +2017,28 @@
         <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>29.62615978988819</v>
+        <v>1116401.576226577</v>
       </c>
       <c r="G46">
-        <v>306.2454341689497</v>
+        <v>4841745.790283957</v>
       </c>
       <c r="H46">
-        <v>1696.317612415596</v>
+        <v>3986291.718105889</v>
       </c>
       <c r="I46">
-        <v>204.273109718016</v>
+        <v>1117164.497883942</v>
       </c>
       <c r="J46">
-        <v>-131.0788370568933</v>
+        <v>4841082.882007134</v>
       </c>
       <c r="K46">
-        <v>-1012.258302172128</v>
+        <v>3983402.499773503</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2055,28 +2052,28 @@
         <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>29.23387858410746</v>
+        <v>1116401.040587953</v>
       </c>
       <c r="G47">
-        <v>316.1421660498906</v>
+        <v>4841762.303138135</v>
       </c>
       <c r="H47">
-        <v>1703.356268048402</v>
+        <v>3986299.705676103</v>
       </c>
       <c r="I47">
-        <v>226.1970292213798</v>
+        <v>1117250.862724399</v>
       </c>
       <c r="J47">
-        <v>-176.4133002709366</v>
+        <v>4841034.230416112</v>
       </c>
       <c r="K47">
-        <v>-1393.316979725496</v>
+        <v>3983039.755077768</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2090,28 +2087,28 @@
         <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>28.8567751193141</v>
+        <v>1116400.525673708</v>
       </c>
       <c r="G48">
-        <v>326.0388979308315</v>
+        <v>4841778.815992313</v>
       </c>
       <c r="H48">
-        <v>1710.212367842145</v>
+        <v>3986307.486079257</v>
       </c>
       <c r="I48">
-        <v>248.6608050728776</v>
+        <v>1117339.354219599</v>
       </c>
       <c r="J48">
-        <v>-221.7477634849796</v>
+        <v>4840985.57882509</v>
       </c>
       <c r="K48">
-        <v>-1790.289115369949</v>
+        <v>3982661.861737341</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2125,28 +2122,28 @@
         <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>28.49389544260656</v>
+        <v>1116400.030181271</v>
       </c>
       <c r="G49">
-        <v>335.9356298117725</v>
+        <v>4841795.328846489</v>
       </c>
       <c r="H49">
-        <v>1716.895142494252</v>
+        <v>3986315.069790486</v>
       </c>
       <c r="I49">
-        <v>271.6777307384241</v>
+        <v>1117430.024736457</v>
       </c>
       <c r="J49">
-        <v>-267.082226699023</v>
+        <v>4840936.927234069</v>
       </c>
       <c r="K49">
-        <v>-2203.174709105491</v>
+        <v>3982268.819752221</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2160,28 +2157,28 @@
         <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>28.14436746950204</v>
+        <v>1116399.552919858</v>
       </c>
       <c r="G50">
-        <v>345.8323616927134</v>
+        <v>4841811.841700667</v>
       </c>
       <c r="H50">
-        <v>1723.413139823883</v>
+        <v>3986322.466509979</v>
       </c>
       <c r="I50">
-        <v>295.2614270233011</v>
+        <v>1117522.927931378</v>
       </c>
       <c r="J50">
-        <v>-312.4166899130664</v>
+        <v>4840888.275643046</v>
       </c>
       <c r="K50">
-        <v>-2631.973760932121</v>
+        <v>3981860.629122407</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2195,28 +2192,28 @@
         <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>27.80739216820428</v>
+        <v>1116399.092798435</v>
       </c>
       <c r="G51">
-        <v>355.7290935736544</v>
+        <v>4841828.354554845</v>
       </c>
       <c r="H51">
-        <v>1729.774290512296</v>
+        <v>3986329.68523759</v>
       </c>
       <c r="I51">
-        <v>319.4258501325904</v>
+        <v>1117618.118782004</v>
       </c>
       <c r="J51">
-        <v>-357.7511531271098</v>
+        <v>4840839.624052024</v>
       </c>
       <c r="K51">
-        <v>-3076.686270849837</v>
+        <v>3981437.289847902</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2230,28 +2227,28 @@
         <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>27.48223587682581</v>
+        <v>1116398.648815226</v>
       </c>
       <c r="G52">
-        <v>365.6258254545954</v>
+        <v>4841844.867409022</v>
       </c>
       <c r="H52">
-        <v>1735.985966117783</v>
+        <v>3986336.734338672</v>
       </c>
       <c r="I52">
-        <v>344.1852999300847</v>
+        <v>1117715.653619752</v>
       </c>
       <c r="J52">
-        <v>-403.0856163411532</v>
+        <v>4840790.972461003</v>
       </c>
       <c r="K52">
-        <v>-3537.31223885864</v>
+        <v>3980998.801928703</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2265,28 +2262,28 @@
         <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>27.16822358544289</v>
+        <v>1116398.220048542</v>
       </c>
       <c r="G53">
-        <v>375.5225573355363</v>
+        <v>4841861.380263199</v>
       </c>
       <c r="H53">
-        <v>1742.055030429633</v>
+        <v>3986343.621602356</v>
       </c>
       <c r="I53">
-        <v>369.5544284005655</v>
+        <v>1117815.590163151</v>
       </c>
       <c r="J53">
-        <v>-448.4200795551961</v>
+        <v>4840742.320869981</v>
       </c>
       <c r="K53">
-        <v>-4013.851664958527</v>
+        <v>3980545.165364812</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2300,28 +2297,28 @@
         <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>26.86473304300295</v>
+        <v>1116397.805648734</v>
       </c>
       <c r="G54">
-        <v>385.4192892164772</v>
+        <v>4841877.893117377</v>
       </c>
       <c r="H54">
-        <v>1747.987885058288</v>
+        <v>3986350.354293282</v>
       </c>
       <c r="I54">
-        <v>395.5482483204621</v>
+        <v>1117917.98755199</v>
       </c>
       <c r="J54">
-        <v>-493.7545427692395</v>
+        <v>4840693.669278959</v>
       </c>
       <c r="K54">
-        <v>-4506.304549149504</v>
+        <v>3980076.380156228</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2335,28 +2332,28 @@
         <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E55">
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>240.7148221072308</v>
+        <v>1116577.455623206</v>
       </c>
       <c r="G55">
-        <v>-36.33668007969342</v>
+        <v>4841134.101730707</v>
       </c>
       <c r="H55">
-        <v>1016.362953219316</v>
+        <v>3985228.917080921</v>
       </c>
       <c r="I55">
-        <v>-2061.570020204715</v>
+        <v>1114862.120472361</v>
       </c>
       <c r="J55">
-        <v>1621.380199602369</v>
+        <v>4843218.782148162</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984363.014243556</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2370,28 +2367,28 @@
         <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E56">
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>240.7148221072308</v>
+        <v>1116577.455623206</v>
       </c>
       <c r="G56">
-        <v>-36.33668007969342</v>
+        <v>4841134.101730707</v>
       </c>
       <c r="H56">
-        <v>1016.362953219316</v>
+        <v>3985228.917080921</v>
       </c>
       <c r="I56">
-        <v>-2020.86913858645</v>
+        <v>1114891.734489093</v>
       </c>
       <c r="J56">
-        <v>1581.938838680413</v>
+        <v>4843170.130605055</v>
       </c>
       <c r="K56">
-        <v>275.8606384256614</v>
+        <v>3984666.809678401</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2405,28 +2402,28 @@
         <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E57">
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>240.7148221072308</v>
+        <v>1116577.455623206</v>
       </c>
       <c r="G57">
-        <v>-36.33668007969342</v>
+        <v>4841134.101730707</v>
       </c>
       <c r="H57">
-        <v>1016.362953219316</v>
+        <v>3985228.917080921</v>
       </c>
       <c r="I57">
-        <v>-1979.166035202461</v>
+        <v>1114922.077723744</v>
       </c>
       <c r="J57">
-        <v>1542.497477758456</v>
+        <v>4843121.479061947</v>
       </c>
       <c r="K57">
-        <v>537.9656009196481</v>
+        <v>3984955.456480317</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2440,28 +2437,28 @@
         <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E58">
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>240.7148221072308</v>
+        <v>1116577.455623206</v>
       </c>
       <c r="G58">
-        <v>-36.33668007969342</v>
+        <v>4841134.101730707</v>
       </c>
       <c r="H58">
-        <v>1016.362953219316</v>
+        <v>3985228.917080921</v>
       </c>
       <c r="I58">
-        <v>-1936.436031263792</v>
+        <v>1114953.168132632</v>
       </c>
       <c r="J58">
-        <v>1503.056116836499</v>
+        <v>4843072.82751884</v>
       </c>
       <c r="K58">
-        <v>786.314887481962</v>
+        <v>3985228.954649303</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2475,28 +2472,28 @@
         <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E59">
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>240.7148221072308</v>
+        <v>1116577.455623206</v>
       </c>
       <c r="G59">
-        <v>-36.33668007969342</v>
+        <v>4841134.101730707</v>
       </c>
       <c r="H59">
-        <v>1016.362953219316</v>
+        <v>3985228.917080921</v>
       </c>
       <c r="I59">
-        <v>-1892.653840289016</v>
+        <v>1114985.024114236</v>
       </c>
       <c r="J59">
-        <v>1463.614755914543</v>
+        <v>4843024.175975733</v>
       </c>
       <c r="K59">
-        <v>1020.908498112602</v>
+        <v>3985487.30418536</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2510,28 +2507,28 @@
         <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E60">
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>240.7148221072308</v>
+        <v>1116577.455623206</v>
       </c>
       <c r="G60">
-        <v>-36.33668007969342</v>
+        <v>4841134.101730707</v>
       </c>
       <c r="H60">
-        <v>1016.362953219316</v>
+        <v>3985228.917080921</v>
       </c>
       <c r="I60">
-        <v>-1847.793553140363</v>
+        <v>1115017.664520081</v>
       </c>
       <c r="J60">
-        <v>1424.173394992586</v>
+        <v>4842975.524432627</v>
       </c>
       <c r="K60">
-        <v>1241.746432811569</v>
+        <v>3985730.505088487</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2545,28 +2542,28 @@
         <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E61">
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>240.7148221072308</v>
+        <v>1116577.455623206</v>
       </c>
       <c r="G61">
-        <v>-36.33668007969342</v>
+        <v>4841134.101730707</v>
       </c>
       <c r="H61">
-        <v>1016.362953219316</v>
+        <v>3985228.917080921</v>
       </c>
       <c r="I61">
-        <v>-1801.828622691382</v>
+        <v>1115051.108665891</v>
       </c>
       <c r="J61">
-        <v>1384.732034070629</v>
+        <v>4842926.872889519</v>
       </c>
       <c r="K61">
-        <v>1448.828691578862</v>
+        <v>3985958.557358684</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2580,28 +2577,28 @@
         <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E62">
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>240.7148221072308</v>
+        <v>1116577.455623206</v>
       </c>
       <c r="G62">
-        <v>-36.33668007969342</v>
+        <v>4841134.101730707</v>
       </c>
       <c r="H62">
-        <v>1016.362953219316</v>
+        <v>3985228.917080921</v>
       </c>
       <c r="I62">
-        <v>-1754.731848117056</v>
+        <v>1115085.376343023</v>
       </c>
       <c r="J62">
-        <v>1345.290673148672</v>
+        <v>4842878.221346412</v>
       </c>
       <c r="K62">
-        <v>1642.155274414482</v>
+        <v>3986171.460995951</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2615,28 +2612,28 @@
         <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E63">
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>240.7148221072308</v>
+        <v>1116577.455623206</v>
       </c>
       <c r="G63">
-        <v>-30.33647138828194</v>
+        <v>4841150.614582454</v>
       </c>
       <c r="H63">
-        <v>1016.362953219316</v>
+        <v>3985228.917080921</v>
       </c>
       <c r="I63">
-        <v>-1706.475358797075</v>
+        <v>1115120.487830179</v>
       </c>
       <c r="J63">
-        <v>1305.849312226716</v>
+        <v>4842829.569803305</v>
       </c>
       <c r="K63">
-        <v>1821.726181318428</v>
+        <v>3986369.216000289</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2650,28 +2647,28 @@
         <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E64">
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>186.8227828939038</v>
+        <v>1116528.775105137</v>
       </c>
       <c r="G64">
-        <v>-24.33626269687047</v>
+        <v>4841167.127434199</v>
       </c>
       <c r="H64">
-        <v>1252.152319203156</v>
+        <v>3985428.171517131</v>
       </c>
       <c r="I64">
-        <v>-1657.030597822745</v>
+        <v>1115156.463905404</v>
       </c>
       <c r="J64">
-        <v>1266.407951304759</v>
+        <v>4842780.918260197</v>
       </c>
       <c r="K64">
-        <v>1987.541412290699</v>
+        <v>3986551.822371697</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2685,28 +2682,28 @@
         <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E65">
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>155.1639133726008</v>
+        <v>1116500.17774285</v>
       </c>
       <c r="G65">
-        <v>-18.336054005459</v>
+        <v>4841183.640285945</v>
       </c>
       <c r="H65">
-        <v>1392.600524309107</v>
+        <v>3985546.857649596</v>
       </c>
       <c r="I65">
-        <v>-1606.368305097769</v>
+        <v>1115193.325858385</v>
       </c>
       <c r="J65">
-        <v>1226.966590382802</v>
+        <v>4842732.266717089</v>
       </c>
       <c r="K65">
-        <v>2139.600967331298</v>
+        <v>3986719.280110176</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2720,28 +2717,28 @@
         <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E66">
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>135.1785123185732</v>
+        <v>1116482.124989765</v>
       </c>
       <c r="G66">
-        <v>-12.33584531404753</v>
+        <v>4841200.15313769</v>
       </c>
       <c r="H66">
-        <v>1492.96936396704</v>
+        <v>3985631.674606781</v>
       </c>
       <c r="I66">
-        <v>-1554.458500022894</v>
+        <v>1115231.095503045</v>
       </c>
       <c r="J66">
-        <v>1187.525229460845</v>
+        <v>4842683.615173982</v>
       </c>
       <c r="K66">
-        <v>2277.904846440224</v>
+        <v>3986871.589215724</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2755,28 +2752,28 @@
         <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E67">
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>121.2407747489999</v>
+        <v>1116469.535073045</v>
       </c>
       <c r="G67">
-        <v>-6.335636622636053</v>
+        <v>4841216.665989435</v>
       </c>
       <c r="H67">
-        <v>1571.126525636027</v>
+        <v>3985697.721525898</v>
       </c>
       <c r="I67">
-        <v>-1501.270463754196</v>
+        <v>1115269.795190457</v>
       </c>
       <c r="J67">
-        <v>1148.083868538889</v>
+        <v>4842634.963630876</v>
       </c>
       <c r="K67">
-        <v>2402.453049617476</v>
+        <v>3987008.749688343</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2790,28 +2787,28 @@
         <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E68">
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>110.8428051344807</v>
+        <v>1116460.142618146</v>
       </c>
       <c r="G68">
-        <v>-0.3354279312245841</v>
+        <v>4841233.178841181</v>
       </c>
       <c r="H68">
-        <v>1635.143303464986</v>
+        <v>3985751.819075723</v>
       </c>
       <c r="I68">
-        <v>-1446.772721024478</v>
+        <v>1115309.447822069</v>
       </c>
       <c r="J68">
-        <v>1108.642507616932</v>
+        <v>4842586.312087769</v>
       </c>
       <c r="K68">
-        <v>2513.245576863053</v>
+        <v>3987130.761528032</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2825,28 +2822,28 @@
         <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E69">
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>102.7130449293352</v>
+        <v>1116452.799030033</v>
       </c>
       <c r="G69">
-        <v>5.66478076018689</v>
+        <v>4841249.691692926</v>
       </c>
       <c r="H69">
-        <v>1689.360841287822</v>
+        <v>3985797.635751494</v>
       </c>
       <c r="I69">
-        <v>-1390.933021517043</v>
+        <v>1115350.076863254</v>
       </c>
       <c r="J69">
-        <v>1069.201146694975</v>
+        <v>4842537.660544661</v>
       </c>
       <c r="K69">
-        <v>2610.282428176958</v>
+        <v>3987237.624734792</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2860,28 +2857,28 @@
         <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E70">
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>96.13547697612205</v>
+        <v>1116446.857532545</v>
       </c>
       <c r="G70">
-        <v>11.66498945159836</v>
+        <v>4841266.204544672</v>
       </c>
       <c r="H70">
-        <v>1736.384680863906</v>
+        <v>3985837.373373265</v>
       </c>
       <c r="I70">
-        <v>-1333.71832078082</v>
+        <v>1115391.706357201</v>
       </c>
       <c r="J70">
-        <v>1029.759785773019</v>
+        <v>4842489.009001554</v>
       </c>
       <c r="K70">
-        <v>2693.563603559189</v>
+        <v>3987329.339308622</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2895,28 +2892,28 @@
         <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E71">
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>90.67375185619561</v>
+        <v>1116441.923972556</v>
       </c>
       <c r="G71">
-        <v>17.66519814300983</v>
+        <v>4841282.717396418</v>
       </c>
       <c r="H71">
-        <v>1777.902078026746</v>
+        <v>3985872.457761104</v>
       </c>
       <c r="I71">
-        <v>-1275.094760675528</v>
+        <v>1115434.360939138</v>
       </c>
       <c r="J71">
-        <v>990.3184248510619</v>
+        <v>4842440.357458447</v>
       </c>
       <c r="K71">
-        <v>2763.089103009746</v>
+        <v>3987405.905249523</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2930,28 +2927,28 @@
         <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E72">
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>86.04535076081316</v>
+        <v>1116437.74315167</v>
       </c>
       <c r="G72">
-        <v>23.66540683442131</v>
+        <v>4841299.230248163</v>
       </c>
       <c r="H72">
-        <v>1815.068502986767</v>
+        <v>3985903.865348213</v>
       </c>
       <c r="I72">
-        <v>-1215.027649335328</v>
+        <v>1115478.065850913</v>
       </c>
       <c r="J72">
-        <v>950.8770639291051</v>
+        <v>4842391.70591534</v>
       </c>
       <c r="K72">
-        <v>2818.85892652863</v>
+        <v>3987467.322557493</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2965,28 +2962,28 @@
         <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E73">
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>82.05843476564743</v>
+        <v>1116434.141782359</v>
       </c>
       <c r="G73">
-        <v>29.66561552583278</v>
+        <v>4841315.743099908</v>
       </c>
       <c r="H73">
-        <v>1848.710020440803</v>
+        <v>3985932.294202778</v>
       </c>
       <c r="I73">
-        <v>-1153.481440639105</v>
+        <v>1115522.846955933</v>
       </c>
       <c r="J73">
-        <v>911.4357030071485</v>
+        <v>4842343.054372232</v>
       </c>
       <c r="K73">
-        <v>2860.87307411584</v>
+        <v>3987513.591232534</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3000,28 +2997,28 @@
         <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E74">
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>78.5776510910034</v>
+        <v>1116430.997600861</v>
       </c>
       <c r="G74">
-        <v>35.66582421724425</v>
+        <v>4841332.255951654</v>
       </c>
       <c r="H74">
-        <v>1879.437705374303</v>
+        <v>3985958.260715355</v>
       </c>
       <c r="I74">
-        <v>-1090.419713175211</v>
+        <v>1115568.730754466</v>
       </c>
       <c r="J74">
-        <v>871.9943420851918</v>
+        <v>4842294.402829126</v>
       </c>
       <c r="K74">
-        <v>2889.131545771377</v>
+        <v>3987544.711274646</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3035,28 +3032,28 @@
         <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E75">
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>75.50444809119914</v>
+        <v>1116428.221585769</v>
       </c>
       <c r="G75">
-        <v>41.66603290865573</v>
+        <v>4841348.768803399</v>
       </c>
       <c r="H75">
-        <v>1907.716327420454</v>
+        <v>3985982.15764077</v>
       </c>
       <c r="I75">
-        <v>-1025.805148688245</v>
+        <v>1115615.744399326</v>
       </c>
       <c r="J75">
-        <v>832.5529811632351</v>
+        <v>4842245.751286018</v>
       </c>
       <c r="K75">
-        <v>2903.63434149524</v>
+        <v>3987560.682683827</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3070,28 +3067,28 @@
         <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E76">
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>72.76515805136626</v>
+        <v>1116425.747193258</v>
       </c>
       <c r="G76">
-        <v>47.6662416000672</v>
+        <v>4841365.281655146</v>
       </c>
       <c r="H76">
-        <v>1933.907623605832</v>
+        <v>3986004.290665868</v>
       </c>
       <c r="I76">
-        <v>-959.5995099950954</v>
+        <v>1115663.915711939</v>
       </c>
       <c r="J76">
-        <v>793.1116202412784</v>
+        <v>4842197.099742911</v>
       </c>
       <c r="K76">
-        <v>2904.38146128743</v>
+        <v>3987561.505460079</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3105,28 +3102,28 @@
         <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E77">
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>70.30347333724158</v>
+        <v>1116423.523560807</v>
       </c>
       <c r="G77">
-        <v>53.66645029147868</v>
+        <v>4841381.794506892</v>
       </c>
       <c r="H77">
-        <v>1958.298668312918</v>
+        <v>3986024.902383625</v>
       </c>
       <c r="I77">
-        <v>-891.7636183571988</v>
+        <v>1115713.273198808</v>
       </c>
       <c r="J77">
-        <v>753.6702593193215</v>
+        <v>4842148.448199803</v>
       </c>
       <c r="K77">
-        <v>2891.372905147946</v>
+        <v>3987547.179603401</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3140,28 +3137,28 @@
         <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E78">
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>68.07552451603978</v>
+        <v>1116421.511061291</v>
       </c>
       <c r="G78">
-        <v>59.66665898289015</v>
+        <v>4841398.307358637</v>
       </c>
       <c r="H78">
-        <v>1981.121104425685</v>
+        <v>3986044.188544481</v>
       </c>
       <c r="I78">
-        <v>-822.2573302955942</v>
+        <v>1115763.846068384</v>
       </c>
       <c r="J78">
-        <v>714.228898397365</v>
+        <v>4842099.796656696</v>
       </c>
       <c r="K78">
-        <v>2864.608673076788</v>
+        <v>3987517.705113794</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3175,28 +3172,28 @@
         <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E79">
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>66.04656110840655</v>
+        <v>1116419.678304705</v>
       </c>
       <c r="G79">
-        <v>65.66686767430163</v>
+        <v>4841414.820210382</v>
       </c>
       <c r="H79">
-        <v>2002.56455550435</v>
+        <v>3986062.309390335</v>
       </c>
       <c r="I79">
-        <v>-751.0395138350854</v>
+        <v>1115815.664248346</v>
       </c>
       <c r="J79">
-        <v>674.7875374754082</v>
+        <v>4842051.145113589</v>
       </c>
       <c r="K79">
-        <v>2824.088765073957</v>
+        <v>3987473.081991257</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3210,28 +3207,28 @@
         <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E80">
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>64.18865332838644</v>
+        <v>1116418.000062156</v>
       </c>
       <c r="G80">
-        <v>71.66707636571309</v>
+        <v>4841431.333062127</v>
       </c>
       <c r="H80">
-        <v>2022.786211808058</v>
+        <v>3986079.397755237</v>
       </c>
       <c r="I80">
-        <v>-678.0680241634265</v>
+        <v>1115868.758403318</v>
       </c>
       <c r="J80">
-        <v>635.3461765534514</v>
+        <v>4842002.493570481</v>
       </c>
       <c r="K80">
-        <v>2769.813181139452</v>
+        <v>3987413.31023579</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3245,28 +3242,28 @@
         <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E81">
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>62.47906363807314</v>
+        <v>1116416.455794894</v>
       </c>
       <c r="G81">
-        <v>77.66728505712456</v>
+        <v>4841447.845913873</v>
       </c>
       <c r="H81">
-        <v>2041.917829571032</v>
+        <v>3986095.564980147</v>
       </c>
       <c r="I81">
-        <v>-603.2996786911428</v>
+        <v>1115923.159953011</v>
       </c>
       <c r="J81">
-        <v>595.9048156314948</v>
+        <v>4841953.842027375</v>
       </c>
       <c r="K81">
-        <v>2701.781921273274</v>
+        <v>3987338.389847394</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3280,28 +3277,28 @@
         <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E82">
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>60.89906919757518</v>
+        <v>1116415.028590635</v>
       </c>
       <c r="G82">
-        <v>83.66749374853605</v>
+        <v>4841464.358765619</v>
       </c>
       <c r="H82">
-        <v>2060.070938440047</v>
+        <v>3986110.905313491</v>
       </c>
       <c r="I82">
-        <v>-526.6902314972199</v>
+        <v>1115978.901090815</v>
       </c>
       <c r="J82">
-        <v>556.463454709538</v>
+        <v>4841905.190484268</v>
       </c>
       <c r="K82">
-        <v>2619.994985475422</v>
+        <v>3987248.320826068</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3315,28 +3312,28 @@
         <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E83">
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>59.43309483768006</v>
+        <v>1116413.704380374</v>
       </c>
       <c r="G83">
-        <v>89.6677024399475</v>
+        <v>4841480.871617364</v>
       </c>
       <c r="H83">
-        <v>2077.340780825074</v>
+        <v>3986125.499240123</v>
       </c>
       <c r="I83">
-        <v>-448.1943471455459</v>
+        <v>1116036.014802858</v>
       </c>
       <c r="J83">
-        <v>517.0220937875812</v>
+        <v>4841856.538941161</v>
       </c>
       <c r="K83">
-        <v>2524.452373745896</v>
+        <v>3987143.103171812</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3350,28 +3347,28 @@
         <v>14</v>
       </c>
       <c r="D84" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E84">
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>58.06806426937305</v>
+        <v>1116412.471352338</v>
       </c>
       <c r="G84">
-        <v>95.66791113135898</v>
+        <v>4841497.38446911</v>
       </c>
       <c r="H84">
-        <v>2093.809336574219</v>
+        <v>3986139.416037334</v>
       </c>
       <c r="I84">
-        <v>-367.7655738566015</v>
+        <v>1116094.534887516</v>
       </c>
       <c r="J84">
-        <v>477.5807328656246</v>
+        <v>4841807.887398053</v>
       </c>
       <c r="K84">
-        <v>2415.154086084698</v>
+        <v>3987022.736884627</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3385,28 +3382,28 @@
         <v>14</v>
       </c>
       <c r="D85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E85">
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>56.79290748866174</v>
+        <v>1116411.319507027</v>
       </c>
       <c r="G85">
-        <v>101.6681198227705</v>
+        <v>4841513.897320855</v>
       </c>
       <c r="H85">
-        <v>2109.547676556746</v>
+        <v>3986152.715763754</v>
       </c>
       <c r="I85">
-        <v>-285.3563160185317</v>
+        <v>1116154.495975422</v>
       </c>
       <c r="J85">
-        <v>438.1393719436678</v>
+        <v>4841759.235854946</v>
       </c>
       <c r="K85">
-        <v>2292.100122491825</v>
+        <v>3986887.221964512</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3420,28 +3417,28 @@
         <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E86">
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>55.59818182255761</v>
+        <v>1116410.2403149</v>
       </c>
       <c r="G86">
-        <v>107.6683285141819</v>
+        <v>4841530.4101726</v>
       </c>
       <c r="H86">
-        <v>2124.617816264104</v>
+        <v>3986165.450825738</v>
       </c>
       <c r="I86">
-        <v>-200.9178060213259</v>
+        <v>1116215.933549954</v>
       </c>
       <c r="J86">
-        <v>398.6980110217112</v>
+        <v>4841710.584311838</v>
       </c>
       <c r="K86">
-        <v>2155.290482967279</v>
+        <v>3986736.558411467</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3455,28 +3452,28 @@
         <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E87">
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>54.47577689459322</v>
+        <v>1116409.226449881</v>
       </c>
       <c r="G87">
-        <v>113.6685372055934</v>
+        <v>4841546.923024346</v>
       </c>
       <c r="H87">
-        <v>2139.074191707386</v>
+        <v>3986177.667224584</v>
       </c>
       <c r="I87">
-        <v>-114.4000753974436</v>
+        <v>1116278.883968237</v>
       </c>
       <c r="J87">
-        <v>359.2566500997544</v>
+        <v>4841661.932768731</v>
       </c>
       <c r="K87">
-        <v>2004.725167511059</v>
+        <v>3986570.746225492</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3490,28 +3487,28 @@
         <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E88">
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>53.4186824066073</v>
+        <v>1116408.271579587</v>
       </c>
       <c r="G88">
-        <v>119.6687458970049</v>
+        <v>4841563.435876091</v>
       </c>
       <c r="H88">
-        <v>2152.964846362448</v>
+        <v>3986189.405559561</v>
       </c>
       <c r="I88">
-        <v>-25.75192525180124</v>
+        <v>1116343.384482657</v>
       </c>
       <c r="J88">
-        <v>319.8152891777977</v>
+        <v>4841613.281225624</v>
       </c>
       <c r="K88">
-        <v>1840.404176123166</v>
+        <v>3986389.785406588</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3525,28 +3522,28 @@
         <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E89">
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>52.4208035262182</v>
+        <v>1116407.370198575</v>
       </c>
       <c r="G89">
-        <v>125.6689545884164</v>
+        <v>4841579.948727837</v>
       </c>
       <c r="H89">
-        <v>2166.332394498009</v>
+        <v>3986200.70184197</v>
       </c>
       <c r="I89">
-        <v>65.07910403637509</v>
+        <v>1116409.473262905</v>
       </c>
       <c r="J89">
-        <v>280.3739282558411</v>
+        <v>4841564.629682517</v>
       </c>
       <c r="K89">
-        <v>1662.327508803599</v>
+        <v>3986193.675954754</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3560,28 +3557,28 @@
         <v>14</v>
       </c>
       <c r="D90" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E90">
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>51.47681276495849</v>
+        <v>1116406.517494539</v>
       </c>
       <c r="G90">
-        <v>131.6691632798278</v>
+        <v>4841596.461579584</v>
       </c>
       <c r="H90">
-        <v>2179.214809610905</v>
+        <v>3986211.588161417</v>
       </c>
       <c r="I90">
-        <v>158.1467638577579</v>
+        <v>1116477.189418566</v>
       </c>
       <c r="J90">
-        <v>240.9325673338843</v>
+        <v>4841515.97813941</v>
       </c>
       <c r="K90">
-        <v>1470.495165552359</v>
+        <v>3985982.417869991</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3595,28 +3592,28 @@
         <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E91">
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>50.58203012155467</v>
+        <v>1116405.70924005</v>
       </c>
       <c r="G91">
-        <v>137.6693719712393</v>
+        <v>4841612.974431328</v>
       </c>
       <c r="H91">
-        <v>2191.646074739542</v>
+        <v>3986222.09323536</v>
       </c>
       <c r="I91">
-        <v>253.5061291815661</v>
+        <v>1116546.573022263</v>
       </c>
       <c r="J91">
-        <v>201.4912064119277</v>
+        <v>4841467.326596303</v>
       </c>
       <c r="K91">
-        <v>1264.907146369446</v>
+        <v>3985756.011152298</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3630,28 +3627,28 @@
         <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E92">
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>49.73232533183481</v>
+        <v>1116404.941704251</v>
       </c>
       <c r="G92">
-        <v>143.6695806626508</v>
+        <v>4841629.487283074</v>
       </c>
       <c r="H92">
-        <v>2203.656722711472</v>
+        <v>3986232.242865646</v>
       </c>
       <c r="I92">
-        <v>351.2136311474646</v>
+        <v>1116617.665133369</v>
       </c>
       <c r="J92">
-        <v>162.0498454899709</v>
+        <v>4841418.675053195</v>
       </c>
       <c r="K92">
-        <v>1045.563451254857</v>
+        <v>3985514.455801675</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3665,28 +3662,28 @@
         <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E93">
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>48.92403756433496</v>
+        <v>1116404.211580325</v>
       </c>
       <c r="G93">
-        <v>149.6697893540622</v>
+        <v>4841646.00013482</v>
       </c>
       <c r="H93">
-        <v>2215.274287949582</v>
+        <v>3986242.060320314</v>
       </c>
       <c r="I93">
-        <v>451.3270904600207</v>
+        <v>1116690.507822307</v>
       </c>
       <c r="J93">
-        <v>122.6084845680141</v>
+        <v>4841370.023510088</v>
       </c>
       <c r="K93">
-        <v>812.4640802085963</v>
+        <v>3985257.751818122</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3700,28 +3697,28 @@
         <v>14</v>
       </c>
       <c r="D94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E94">
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>48.15390899861276</v>
+        <v>1116403.515925491</v>
       </c>
       <c r="G94">
-        <v>155.6699980454737</v>
+        <v>4841662.512986565</v>
       </c>
       <c r="H94">
-        <v>2226.523686661444</v>
+        <v>3986251.56665487</v>
       </c>
       <c r="I94">
-        <v>553.9057516054531</v>
+        <v>1116765.144195447</v>
       </c>
       <c r="J94">
-        <v>83.16712364605752</v>
+        <v>4841321.371966981</v>
       </c>
       <c r="K94">
-        <v>565.609033230662</v>
+        <v>3984985.89920164</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3735,28 +3732,28 @@
         <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E95">
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>47.41902953710974</v>
+        <v>1116402.852111069</v>
       </c>
       <c r="G95">
-        <v>161.6702067368852</v>
+        <v>4841679.025838311</v>
       </c>
       <c r="H95">
-        <v>2237.427538616868</v>
+        <v>3986260.780984215</v>
       </c>
       <c r="I95">
-        <v>659.0103179109562</v>
+        <v>1116841.618420611</v>
       </c>
       <c r="J95">
-        <v>43.72576272410073</v>
+        <v>4841272.720423874</v>
       </c>
       <c r="K95">
-        <v>304.9983103210535</v>
+        <v>3984698.897952228</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3770,28 +3767,28 @@
         <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E96">
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>46.7167905108336</v>
+        <v>1116402.217780653</v>
       </c>
       <c r="G96">
-        <v>167.6704154282967</v>
+        <v>4841695.538690057</v>
       </c>
       <c r="H96">
-        <v>2248.006440962547</v>
+        <v>3986269.720714019</v>
       </c>
       <c r="I96">
-        <v>766.7029874673035</v>
+        <v>1116919.975753214</v>
       </c>
       <c r="J96">
-        <v>4.284401802143948</v>
+        <v>4841224.068880767</v>
       </c>
       <c r="K96">
-        <v>30.63191147977146</v>
+        <v>3984396.748069887</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3805,28 +3802,28 @@
         <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E97">
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>46.04484569989053</v>
+        <v>1116401.610814912</v>
       </c>
       <c r="G97">
-        <v>173.6706241197081</v>
+        <v>4841712.051541802</v>
       </c>
       <c r="H97">
-        <v>2258.279202405023</v>
+        <v>3986278.401738631</v>
       </c>
       <c r="I97">
-        <v>877.0474899360357</v>
+        <v>1117000.262563046</v>
       </c>
       <c r="J97">
-        <v>-35.15695911981265</v>
+        <v>4841175.417337659</v>
       </c>
       <c r="K97">
-        <v>-257.4901632931832</v>
+        <v>3984079.449554616</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3840,28 +3837,28 @@
         <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E98">
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>45.40107834137036</v>
+        <v>1116401.02930178</v>
       </c>
       <c r="G98">
-        <v>179.6708328111196</v>
+        <v>4841728.564393547</v>
       </c>
       <c r="H98">
-        <v>2268.263044452271</v>
+        <v>3986286.838611134</v>
       </c>
       <c r="I98">
-        <v>990.1091242629801</v>
+        <v>1117082.526361707</v>
       </c>
       <c r="J98">
-        <v>-74.59832004176944</v>
+        <v>4841126.765794552</v>
       </c>
       <c r="K98">
-        <v>-559.3679139978124</v>
+        <v>3983747.002406415</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3875,28 +3872,28 @@
         <v>14</v>
       </c>
       <c r="D99" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E99">
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>44.7835730674536</v>
+        <v>1116400.47151111</v>
       </c>
       <c r="G99">
-        <v>185.6710415025311</v>
+        <v>4841745.077245292</v>
       </c>
       <c r="H99">
-        <v>2277.973775122522</v>
+        <v>3986295.044690135</v>
       </c>
       <c r="I99">
-        <v>1105.95479732043</v>
+        <v>1117166.815830729</v>
       </c>
       <c r="J99">
-        <v>-114.0396809637262</v>
+        <v>4841078.114251444</v>
       </c>
       <c r="K99">
-        <v>-875.0013406341158</v>
+        <v>3983399.406625284</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3910,28 +3907,28 @@
         <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E100">
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>44.19059192623711</v>
+        <v>1116399.935873017</v>
       </c>
       <c r="G100">
-        <v>191.6712501939425</v>
+        <v>4841761.590097038</v>
       </c>
       <c r="H100">
-        <v>2287.425939520449</v>
+        <v>3986303.032267014</v>
       </c>
       <c r="I100">
-        <v>1224.653063500854</v>
+        <v>1117253.18085038</v>
       </c>
       <c r="J100">
-        <v>-153.481041885683</v>
+        <v>4841029.462708337</v>
       </c>
       <c r="K100">
-        <v>-1204.390443202092</v>
+        <v>3983036.662211224</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3945,28 +3942,28 @@
         <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E101">
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>43.62055380150765</v>
+        <v>1116399.420959281</v>
       </c>
       <c r="G101">
-        <v>197.671458885354</v>
+        <v>4841778.102948784</v>
       </c>
       <c r="H101">
-        <v>2296.63295088168</v>
+        <v>3986310.812676662</v>
       </c>
       <c r="I101">
-        <v>1346.274165285568</v>
+        <v>1117341.672529186</v>
       </c>
       <c r="J101">
-        <v>-192.9224028076394</v>
+        <v>4840980.81116523</v>
       </c>
       <c r="K101">
-        <v>-1547.53522170174</v>
+        <v>3982658.769164234</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3980,28 +3977,28 @@
         <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E102">
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>43.07201667648773</v>
+        <v>1116398.925467334</v>
       </c>
       <c r="G102">
-        <v>203.6716675767655</v>
+        <v>4841794.615800529</v>
       </c>
       <c r="H102">
-        <v>2305.607205049138</v>
+        <v>3986318.396394219</v>
       </c>
       <c r="I102">
-        <v>1470.890074812371</v>
+        <v>1117432.343234172</v>
       </c>
       <c r="J102">
-        <v>-232.3637637295962</v>
+        <v>4840932.159622123</v>
       </c>
       <c r="K102">
-        <v>-1904.435676133063</v>
+        <v>3982265.727484315</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4015,28 +4012,28 @@
         <v>14</v>
       </c>
       <c r="D103" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E103">
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>42.54366228855292</v>
+        <v>1116398.448206394</v>
       </c>
       <c r="G103">
-        <v>209.671876268177</v>
+        <v>4841811.128652276</v>
       </c>
       <c r="H103">
-        <v>2314.360180833005</v>
+        <v>3986325.793119885</v>
       </c>
       <c r="I103">
-        <v>1598.574536466735</v>
+        <v>1117525.246621853</v>
       </c>
       <c r="J103">
-        <v>-271.805124651553</v>
+        <v>4840883.508079016</v>
       </c>
       <c r="K103">
-        <v>-2275.091806496061</v>
+        <v>3981857.537171465</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4050,28 +4047,28 @@
         <v>14</v>
       </c>
       <c r="D104" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E104">
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>42.03428280317169</v>
+        <v>1116397.988085426</v>
       </c>
       <c r="G104">
-        <v>215.6720849595884</v>
+        <v>4841827.641504021</v>
       </c>
       <c r="H104">
-        <v>2322.902528293025</v>
+        <v>3986333.011853519</v>
       </c>
       <c r="I104">
-        <v>1729.403110521787</v>
+        <v>1117620.437669985</v>
       </c>
       <c r="J104">
-        <v>-311.2464855735098</v>
+        <v>4840834.856535909</v>
       </c>
       <c r="K104">
-        <v>-2659.503612790731</v>
+        <v>3981434.198225687</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4085,28 +4082,28 @@
         <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E105">
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>41.54276920044482</v>
+        <v>1116397.544102656</v>
       </c>
       <c r="G105">
-        <v>221.6722936509999</v>
+        <v>4841844.154355766</v>
       </c>
       <c r="H105">
-        <v>2331.244146646394</v>
+        <v>3986340.060960485</v>
       </c>
       <c r="I105">
-        <v>1863.453217852865</v>
+        <v>1117717.972710104</v>
       </c>
       <c r="J105">
-        <v>-350.6878464954665</v>
+        <v>4840786.204992802</v>
       </c>
       <c r="K105">
-        <v>-3057.671095017075</v>
+        <v>3980995.710646978</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4120,28 +4117,28 @@
         <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E106">
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>41.06810112010773</v>
+        <v>1116397.115336397</v>
       </c>
       <c r="G106">
-        <v>227.6725023424114</v>
+        <v>4841860.667207512</v>
       </c>
       <c r="H106">
-        <v>2339.394253230643</v>
+        <v>3986346.948229915</v>
       </c>
       <c r="I106">
-        <v>2000.80418575313</v>
+        <v>1117817.909460855</v>
       </c>
       <c r="J106">
-        <v>-390.1292074174229</v>
+        <v>4840737.553449695</v>
       </c>
       <c r="K106">
-        <v>-3469.59425317509</v>
+        <v>3980542.07443534</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4155,28 +4152,28 @@
         <v>14</v>
       </c>
       <c r="D107" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E107">
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>40.60933795339859</v>
+        <v>1116396.700936998</v>
       </c>
       <c r="G107">
-        <v>233.6727110338228</v>
+        <v>4841877.180059258</v>
       </c>
       <c r="H107">
-        <v>2347.36144472637</v>
+        <v>3986353.680926461</v>
       </c>
       <c r="I107">
-        <v>2141.537294877368</v>
+        <v>1117920.307062153</v>
       </c>
       <c r="J107">
-        <v>-429.5705683393797</v>
+        <v>4840688.901906587</v>
       </c>
       <c r="K107">
-        <v>-3895.273087264782</v>
+        <v>3980073.289590772</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4184,34 +4181,34 @@
         <v>88</v>
       </c>
       <c r="B108" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C108" t="s">
         <v>15</v>
       </c>
       <c r="D108" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E108">
         <v>152.142</v>
       </c>
       <c r="F108">
-        <v>205.3661561930116</v>
+        <v>1116578.540372681</v>
       </c>
       <c r="G108">
-        <v>-86.06885282575621</v>
+        <v>4841122.202526071</v>
       </c>
       <c r="H108">
-        <v>491.9962849160374</v>
+        <v>3985223.275614627</v>
       </c>
       <c r="I108">
-        <v>-2021.227544423476</v>
+        <v>1114860.917551684</v>
       </c>
       <c r="J108">
-        <v>2412.453072440989</v>
+        <v>4843225.074472251</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>3984369.333489346</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4219,34 +4216,34 @@
         <v>88</v>
       </c>
       <c r="B109" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C109" t="s">
         <v>15</v>
       </c>
       <c r="D109" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E109">
         <v>153.142</v>
       </c>
       <c r="F109">
-        <v>205.3661561930116</v>
+        <v>1116578.540372681</v>
       </c>
       <c r="G109">
-        <v>-86.06885282575621</v>
+        <v>4841122.202526071</v>
       </c>
       <c r="H109">
-        <v>491.9962849160374</v>
+        <v>3985223.275614627</v>
       </c>
       <c r="I109">
-        <v>-1981.323130698548</v>
+        <v>1114890.531536464</v>
       </c>
       <c r="J109">
-        <v>2353.768235682304</v>
+        <v>4843176.422865936</v>
       </c>
       <c r="K109">
-        <v>242.1360702525778</v>
+        <v>3984673.129406014</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4254,34 +4251,34 @@
         <v>88</v>
       </c>
       <c r="B110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C110" t="s">
         <v>15</v>
       </c>
       <c r="D110" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E110">
         <v>154.142</v>
       </c>
       <c r="F110">
-        <v>205.3661561930116</v>
+        <v>1116578.540372681</v>
       </c>
       <c r="G110">
-        <v>-86.06885282575621</v>
+        <v>4841122.202526071</v>
       </c>
       <c r="H110">
-        <v>491.9962849160374</v>
+        <v>3985223.275614627</v>
       </c>
       <c r="I110">
-        <v>-1940.436107497032</v>
+        <v>1114920.874738374</v>
       </c>
       <c r="J110">
-        <v>2295.08339892362</v>
+        <v>4843127.77125962</v>
       </c>
       <c r="K110">
-        <v>472.1981261304617</v>
+        <v>3984961.776665728</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4289,34 +4286,34 @@
         <v>88</v>
       </c>
       <c r="B111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C111" t="s">
         <v>15</v>
       </c>
       <c r="D111" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E111">
         <v>155.142</v>
       </c>
       <c r="F111">
-        <v>205.3661561930116</v>
+        <v>1116578.540372681</v>
       </c>
       <c r="G111">
-        <v>-86.06885282575621</v>
+        <v>4841122.202526071</v>
       </c>
       <c r="H111">
-        <v>491.9962849160374</v>
+        <v>3985223.275614627</v>
       </c>
       <c r="I111">
-        <v>-1898.542278964551</v>
+        <v>1114951.965113716</v>
       </c>
       <c r="J111">
-        <v>2236.398562164935</v>
+        <v>4843079.119653304</v>
       </c>
       <c r="K111">
-        <v>690.1861676336534</v>
+        <v>3985235.275268484</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4324,34 +4321,34 @@
         <v>88</v>
       </c>
       <c r="B112" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C112" t="s">
         <v>15</v>
       </c>
       <c r="D112" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E112">
         <v>156.142</v>
       </c>
       <c r="F112">
-        <v>205.3661561930116</v>
+        <v>1116578.540372681</v>
       </c>
       <c r="G112">
-        <v>-86.06885282575621</v>
+        <v>4841122.202526071</v>
       </c>
       <c r="H112">
-        <v>491.9962849160374</v>
+        <v>3985223.275614627</v>
       </c>
       <c r="I112">
-        <v>-1855.616853446072</v>
+        <v>1114983.821060948</v>
       </c>
       <c r="J112">
-        <v>2177.713725406251</v>
+        <v>4843030.468046989</v>
       </c>
       <c r="K112">
-        <v>896.1001947621515</v>
+        <v>3985493.625214287</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4359,34 +4356,34 @@
         <v>88</v>
       </c>
       <c r="B113" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C113" t="s">
         <v>15</v>
       </c>
       <c r="D113" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E113">
         <v>157.142</v>
       </c>
       <c r="F113">
-        <v>205.3661561930116</v>
+        <v>1116578.540372681</v>
       </c>
       <c r="G113">
-        <v>-86.06885282575621</v>
+        <v>4841122.202526071</v>
       </c>
       <c r="H113">
-        <v>491.9962849160374</v>
+        <v>3985223.275614627</v>
       </c>
       <c r="I113">
-        <v>-1811.634428814868</v>
+        <v>1115016.461431575</v>
       </c>
       <c r="J113">
-        <v>2119.028888647566</v>
+        <v>4842981.816440674</v>
       </c>
       <c r="K113">
-        <v>1089.940207515958</v>
+        <v>3985736.826503133</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4394,34 +4391,34 @@
         <v>88</v>
       </c>
       <c r="B114" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C114" t="s">
         <v>15</v>
       </c>
       <c r="D114" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E114">
         <v>158.142</v>
       </c>
       <c r="F114">
-        <v>205.3661561930116</v>
+        <v>1116578.540372681</v>
       </c>
       <c r="G114">
-        <v>-86.06885282575621</v>
+        <v>4841122.202526071</v>
       </c>
       <c r="H114">
-        <v>491.9962849160374</v>
+        <v>3985223.275614627</v>
       </c>
       <c r="I114">
-        <v>-1766.568977440209</v>
+        <v>1115049.905541298</v>
       </c>
       <c r="J114">
-        <v>2060.344051888881</v>
+        <v>4842933.164834358</v>
       </c>
       <c r="K114">
-        <v>1271.706205895071</v>
+        <v>3985964.879135023</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4429,34 +4426,34 @@
         <v>88</v>
       </c>
       <c r="B115" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C115" t="s">
         <v>15</v>
       </c>
       <c r="D115" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E115">
         <v>159.142</v>
       </c>
       <c r="F115">
-        <v>205.3661561930116</v>
+        <v>1116578.540372681</v>
       </c>
       <c r="G115">
-        <v>-86.06885282575621</v>
+        <v>4841122.202526071</v>
       </c>
       <c r="H115">
-        <v>491.9962849160374</v>
+        <v>3985223.275614627</v>
       </c>
       <c r="I115">
-        <v>-1720.393830784905</v>
+        <v>1115084.173181456</v>
       </c>
       <c r="J115">
-        <v>2001.659215130197</v>
+        <v>4842884.513228043</v>
       </c>
       <c r="K115">
-        <v>1441.39818989949</v>
+        <v>3986177.783109958</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4464,34 +4461,34 @@
         <v>88</v>
       </c>
       <c r="B116" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C116" t="s">
         <v>15</v>
       </c>
       <c r="D116" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E116">
         <v>160.142</v>
       </c>
       <c r="F116">
-        <v>205.3661561930116</v>
+        <v>1116578.540372681</v>
       </c>
       <c r="G116">
-        <v>-71.85646254540359</v>
+        <v>4841138.71533723</v>
       </c>
       <c r="H116">
-        <v>491.9962849160374</v>
+        <v>3985223.275614627</v>
       </c>
       <c r="I116">
-        <v>-1673.08166362357</v>
+        <v>1115119.284630727</v>
       </c>
       <c r="J116">
-        <v>1942.974378371513</v>
+        <v>4842835.861621727</v>
       </c>
       <c r="K116">
-        <v>1599.016159529217</v>
+        <v>3986375.538427938</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4499,34 +4496,34 @@
         <v>88</v>
       </c>
       <c r="B117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C117" t="s">
         <v>15</v>
       </c>
       <c r="D117" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E117">
         <v>161.142</v>
       </c>
       <c r="F117">
-        <v>159.388094494286</v>
+        <v>1116529.859807319</v>
       </c>
       <c r="G117">
-        <v>-57.64407226505097</v>
+        <v>4841155.228148387</v>
       </c>
       <c r="H117">
-        <v>606.1361123460957</v>
+        <v>3985422.529768773</v>
       </c>
       <c r="I117">
-        <v>-1624.604477872282</v>
+        <v>1115155.260667135</v>
       </c>
       <c r="J117">
-        <v>1884.289541612828</v>
+        <v>4842787.210015412</v>
       </c>
       <c r="K117">
-        <v>1744.56011478425</v>
+        <v>3986558.145088962</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4534,34 +4531,34 @@
         <v>88</v>
       </c>
       <c r="B118" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C118" t="s">
         <v>15</v>
       </c>
       <c r="D118" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E118">
         <v>162.142</v>
       </c>
       <c r="F118">
-        <v>132.3782897548429</v>
+        <v>1116501.262417249</v>
       </c>
       <c r="G118">
-        <v>-43.43168198469836</v>
+        <v>4841171.740959546</v>
       </c>
       <c r="H118">
-        <v>674.1236308958227</v>
+        <v>3985541.215733227</v>
       </c>
       <c r="I118">
-        <v>-1574.933586020062</v>
+        <v>1115192.122580342</v>
       </c>
       <c r="J118">
-        <v>1825.604704854143</v>
+        <v>4842738.558409096</v>
       </c>
       <c r="K118">
-        <v>1878.030055664592</v>
+        <v>3986725.60309303</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4569,34 +4566,34 @@
         <v>88</v>
       </c>
       <c r="B119" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C119" t="s">
         <v>15</v>
       </c>
       <c r="D119" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E119">
         <v>163.142</v>
       </c>
       <c r="F119">
-        <v>115.3277194637743</v>
+        <v>1116483.209646627</v>
       </c>
       <c r="G119">
-        <v>-29.21929170434574</v>
+        <v>4841188.253770703</v>
       </c>
       <c r="H119">
-        <v>722.709715302601</v>
+        <v>3985626.032570344</v>
       </c>
       <c r="I119">
-        <v>-1524.039594152363</v>
+        <v>1115229.892184249</v>
       </c>
       <c r="J119">
-        <v>1766.919868095459</v>
+        <v>4842689.906802781</v>
       </c>
       <c r="K119">
-        <v>1999.42598217024</v>
+        <v>3986877.912440143</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -4604,34 +4601,34 @@
         <v>88</v>
       </c>
       <c r="B120" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C120" t="s">
         <v>15</v>
       </c>
       <c r="D120" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E120">
         <v>164.142</v>
       </c>
       <c r="F120">
-        <v>103.4367209551112</v>
+        <v>1116470.619717675</v>
       </c>
       <c r="G120">
-        <v>-15.00690142399312</v>
+        <v>4841204.766581861</v>
       </c>
       <c r="H120">
-        <v>760.5436732001456</v>
+        <v>3985692.079395967</v>
       </c>
       <c r="I120">
-        <v>-1471.892384556537</v>
+        <v>1115268.591829905</v>
       </c>
       <c r="J120">
-        <v>1708.235031336774</v>
+        <v>4842641.255196466</v>
       </c>
       <c r="K120">
-        <v>2108.747894301196</v>
+        <v>3987015.0731303</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -4639,34 +4636,34 @@
         <v>88</v>
       </c>
       <c r="B121" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C121" t="s">
         <v>15</v>
       </c>
       <c r="D121" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E121">
         <v>165.142</v>
       </c>
       <c r="F121">
-        <v>94.56567997287249</v>
+        <v>1116461.227253652</v>
       </c>
       <c r="G121">
-        <v>-0.7945111436405113</v>
+        <v>4841221.279393019</v>
       </c>
       <c r="H121">
-        <v>791.532619387509</v>
+        <v>3985746.176869211</v>
       </c>
       <c r="I121">
-        <v>-1418.461097898966</v>
+        <v>1115308.244418732</v>
       </c>
       <c r="J121">
-        <v>1649.55019457809</v>
+        <v>4842592.60359015</v>
       </c>
       <c r="K121">
-        <v>2205.995792057457</v>
+        <v>3987137.085163502</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -4674,34 +4671,34 @@
         <v>88</v>
       </c>
       <c r="B122" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C122" t="s">
         <v>15</v>
       </c>
       <c r="D122" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E122">
         <v>166.142</v>
       </c>
       <c r="F122">
-        <v>87.62976472890844</v>
+        <v>1116453.883658404</v>
       </c>
       <c r="G122">
-        <v>13.41787913671211</v>
+        <v>4841237.792204177</v>
       </c>
       <c r="H122">
-        <v>817.7779947247723</v>
+        <v>3985791.993480125</v>
       </c>
       <c r="I122">
-        <v>-1363.714114963336</v>
+        <v>1115348.87341608</v>
       </c>
       <c r="J122">
-        <v>1590.865357819405</v>
+        <v>4842543.951983835</v>
       </c>
       <c r="K122">
-        <v>2291.169675439026</v>
+        <v>3987243.948539747</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -4709,34 +4706,34 @@
         <v>88</v>
       </c>
       <c r="B123" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C123" t="s">
         <v>15</v>
       </c>
       <c r="D123" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E123">
         <v>167.142</v>
       </c>
       <c r="F123">
-        <v>82.01810427599298</v>
+        <v>1116447.942155144</v>
       </c>
       <c r="G123">
-        <v>27.63026941706473</v>
+        <v>4841254.305015335</v>
       </c>
       <c r="H123">
-        <v>840.5410778346392</v>
+        <v>3985831.731045643</v>
       </c>
       <c r="I123">
-        <v>-1307.619037939216</v>
+        <v>1115390.502865109</v>
       </c>
       <c r="J123">
-        <v>1532.180521060721</v>
+        <v>4842495.300377519</v>
       </c>
       <c r="K123">
-        <v>2364.269544445903</v>
+        <v>3987335.663259038</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -4744,34 +4741,34 @@
         <v>88</v>
       </c>
       <c r="B124" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C124" t="s">
         <v>15</v>
       </c>
       <c r="D124" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E124">
         <v>168.142</v>
       </c>
       <c r="F124">
-        <v>77.35842655343691</v>
+        <v>1116443.008590362</v>
       </c>
       <c r="G124">
-        <v>41.84265969741733</v>
+        <v>4841270.817826494</v>
       </c>
       <c r="H124">
-        <v>860.6386277293892</v>
+        <v>3985866.815383817</v>
       </c>
       <c r="I124">
-        <v>-1250.142671249901</v>
+        <v>1115433.157401022</v>
       </c>
       <c r="J124">
-        <v>1473.495684302036</v>
+        <v>4842446.648771204</v>
       </c>
       <c r="K124">
-        <v>2425.295399078087</v>
+        <v>3987412.229321372</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -4779,34 +4776,34 @@
         <v>88</v>
       </c>
       <c r="B125" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C125" t="s">
         <v>15</v>
       </c>
       <c r="D125" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E125">
         <v>169.142</v>
       </c>
       <c r="F125">
-        <v>73.40970028075732</v>
+        <v>1116438.827765414</v>
       </c>
       <c r="G125">
-        <v>56.05504997776997</v>
+        <v>4841287.330637651</v>
       </c>
       <c r="H125">
-        <v>878.6299790926217</v>
+        <v>3985898.222926465</v>
       </c>
       <c r="I125">
-        <v>-1191.25100190815</v>
+        <v>1115476.86226564</v>
       </c>
       <c r="J125">
-        <v>1414.810847543351</v>
+        <v>4842397.997164889</v>
       </c>
       <c r="K125">
-        <v>2474.247239335577</v>
+        <v>3987473.646726752</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -4814,34 +4811,34 @@
         <v>88</v>
       </c>
       <c r="B126" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C126" t="s">
         <v>15</v>
       </c>
       <c r="D126" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E126">
         <v>170.142</v>
       </c>
       <c r="F126">
-        <v>70.00825783602542</v>
+        <v>1116435.226392604</v>
       </c>
       <c r="G126">
-        <v>70.26744025812258</v>
+        <v>4841303.843448809</v>
       </c>
       <c r="H126">
-        <v>894.9150095080821</v>
+        <v>3985926.651740786</v>
       </c>
       <c r="I126">
-        <v>-1130.909179388201</v>
+        <v>1115521.643322342</v>
       </c>
       <c r="J126">
-        <v>1356.126010784667</v>
+        <v>4842349.345558573</v>
       </c>
       <c r="K126">
-        <v>2511.125065218374</v>
+        <v>3987519.915475175</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -4849,34 +4846,34 @@
         <v>88</v>
       </c>
       <c r="B127" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C127" t="s">
         <v>15</v>
       </c>
       <c r="D127" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E127">
         <v>171.142</v>
       </c>
       <c r="F127">
-        <v>67.03862282334393</v>
+        <v>1116432.082208052</v>
       </c>
       <c r="G127">
-        <v>84.47983053847518</v>
+        <v>4841320.356259967</v>
       </c>
       <c r="H127">
-        <v>909.7895253328339</v>
+        <v>3985952.618216606</v>
       </c>
       <c r="I127">
-        <v>-1069.081495002157</v>
+        <v>1115567.527071367</v>
       </c>
       <c r="J127">
-        <v>1297.441174025982</v>
+        <v>4842300.693952258</v>
       </c>
       <c r="K127">
-        <v>2535.928876726479</v>
+        <v>3987551.035566644</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -4884,34 +4881,34 @@
         <v>88</v>
       </c>
       <c r="B128" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C128" t="s">
         <v>15</v>
       </c>
       <c r="D128" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E128">
         <v>172.142</v>
       </c>
       <c r="F128">
-        <v>64.41671578103688</v>
+        <v>1116429.306190264</v>
       </c>
       <c r="G128">
-        <v>98.69222081882781</v>
+        <v>4841336.869071125</v>
       </c>
       <c r="H128">
-        <v>923.4785101046442</v>
+        <v>3985976.515108193</v>
       </c>
       <c r="I128">
-        <v>-1005.731360768532</v>
+        <v>1115614.5406655</v>
       </c>
       <c r="J128">
-        <v>1238.756337267298</v>
+        <v>4842252.042345942</v>
       </c>
       <c r="K128">
-        <v>2548.658673859891</v>
+        <v>3987567.007001156</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -4919,34 +4916,34 @@
         <v>88</v>
       </c>
       <c r="B129" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C129" t="s">
         <v>15</v>
       </c>
       <c r="D129" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E129">
         <v>173.142</v>
       </c>
       <c r="F129">
-        <v>62.079687004605</v>
+        <v>1116426.831795348</v>
       </c>
       <c r="G129">
-        <v>112.9046110991804</v>
+        <v>4841353.381882284</v>
       </c>
       <c r="H129">
-        <v>936.1570718128659</v>
+        <v>3985998.648101959</v>
       </c>
       <c r="I129">
-        <v>-940.8212877604599</v>
+        <v>1115662.711926137</v>
       </c>
       <c r="J129">
-        <v>1180.071500508613</v>
+        <v>4842203.390739627</v>
       </c>
       <c r="K129">
-        <v>2549.314456618609</v>
+        <v>3987567.829778713</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -4954,34 +4951,34 @@
         <v>88</v>
       </c>
       <c r="B130" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C130" t="s">
         <v>15</v>
       </c>
       <c r="D130" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E130">
         <v>174.142</v>
       </c>
       <c r="F130">
-        <v>59.97949756436493</v>
+        <v>1116424.608160737</v>
       </c>
       <c r="G130">
-        <v>127.1170013795331</v>
+        <v>4841369.894693442</v>
       </c>
       <c r="H130">
-        <v>947.9641760988856</v>
+        <v>3986019.259790538</v>
       </c>
       <c r="I130">
-        <v>-874.3128639207362</v>
+        <v>1115712.06935975</v>
       </c>
       <c r="J130">
-        <v>1121.386663749929</v>
+        <v>4842154.739133311</v>
       </c>
       <c r="K130">
-        <v>2537.896225002635</v>
+        <v>3987553.503899314</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -4989,34 +4986,34 @@
         <v>88</v>
       </c>
       <c r="B131" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C131" t="s">
         <v>15</v>
       </c>
       <c r="D131" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E131">
         <v>175.142</v>
       </c>
       <c r="F131">
-        <v>58.07872019802083</v>
+        <v>1116422.595659266</v>
       </c>
       <c r="G131">
-        <v>141.3293916598857</v>
+        <v>4841386.4075046</v>
       </c>
       <c r="H131">
-        <v>959.011955580269</v>
+        <v>3986038.545924093</v>
       </c>
       <c r="I131">
-        <v>-806.1667313305866</v>
+        <v>1115762.642174758</v>
       </c>
       <c r="J131">
-        <v>1062.701826991244</v>
+        <v>4842106.087526996</v>
       </c>
       <c r="K131">
-        <v>2514.403979011968</v>
+        <v>3987524.02936296</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5024,34 +5021,34 @@
         <v>88</v>
       </c>
       <c r="B132" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C132" t="s">
         <v>15</v>
       </c>
       <c r="D132" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E132">
         <v>176.142</v>
       </c>
       <c r="F132">
-        <v>56.34770748997791</v>
+        <v>1116420.762900899</v>
       </c>
       <c r="G132">
-        <v>155.5417819402383</v>
+        <v>4841402.920315757</v>
       </c>
       <c r="H132">
-        <v>969.3922023543812</v>
+        <v>3986056.666744295</v>
       </c>
       <c r="I132">
-        <v>-736.3425629186974</v>
+        <v>1115814.460298809</v>
       </c>
       <c r="J132">
-        <v>1004.016990232559</v>
+        <v>4842057.435920681</v>
       </c>
       <c r="K132">
-        <v>2478.837718646608</v>
+        <v>3987479.40616965</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5059,34 +5056,34 @@
         <v>88</v>
       </c>
       <c r="B133" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C133" t="s">
         <v>15</v>
       </c>
       <c r="D133" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E133">
         <v>177.142</v>
       </c>
       <c r="F133">
-        <v>54.76263110787688</v>
+        <v>1116419.08465672</v>
       </c>
       <c r="G133">
-        <v>169.7541722205909</v>
+        <v>4841419.433126915</v>
       </c>
       <c r="H133">
-        <v>979.1810083559777</v>
+        <v>3986073.755085007</v>
       </c>
       <c r="I133">
-        <v>-664.7990385967225</v>
+        <v>1115867.554396493</v>
       </c>
       <c r="J133">
-        <v>945.3321534738749</v>
+        <v>4842008.784314364</v>
       </c>
       <c r="K133">
-        <v>2431.197443906555</v>
+        <v>3987419.634319385</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5094,34 +5091,34 @@
         <v>88</v>
       </c>
       <c r="B134" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C134" t="s">
         <v>15</v>
       </c>
       <c r="D134" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E134">
         <v>178.142</v>
       </c>
       <c r="F134">
-        <v>53.3040924923759</v>
+        <v>1116417.540387958</v>
       </c>
       <c r="G134">
-        <v>183.9665625009435</v>
+        <v>4841435.945938073</v>
       </c>
       <c r="H134">
-        <v>988.4421535344812</v>
+        <v>3986089.922287031</v>
       </c>
       <c r="I134">
-        <v>-591.4938208071549</v>
+        <v>1115921.955887487</v>
       </c>
       <c r="J134">
-        <v>886.6473167151904</v>
+        <v>4841960.132708049</v>
       </c>
       <c r="K134">
-        <v>2371.483154791809</v>
+        <v>3987344.713812164</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5129,34 +5126,34 @@
         <v>88</v>
       </c>
       <c r="B135" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C135" t="s">
         <v>15</v>
       </c>
       <c r="D135" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E135">
         <v>179.142</v>
       </c>
       <c r="F135">
-        <v>51.95611822884322</v>
+        <v>1116416.113182312</v>
       </c>
       <c r="G135">
-        <v>198.1789527812961</v>
+        <v>4841452.458749232</v>
       </c>
       <c r="H135">
-        <v>997.2296266462691</v>
+        <v>3986105.262598659</v>
       </c>
       <c r="I135">
-        <v>-516.3835294690821</v>
+        <v>1115977.696965148</v>
       </c>
       <c r="J135">
-        <v>827.9624799565058</v>
+        <v>4841911.481101735</v>
       </c>
       <c r="K135">
-        <v>2299.694851302371</v>
+        <v>3987254.644647987</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5164,34 +5161,34 @@
         <v>88</v>
       </c>
       <c r="B136" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C136" t="s">
         <v>15</v>
       </c>
       <c r="D136" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E136">
         <v>180.142</v>
       </c>
       <c r="F136">
-        <v>50.70542034188445</v>
+        <v>1116414.788970765</v>
       </c>
       <c r="G136">
-        <v>212.3913430616487</v>
+        <v>4841468.971560389</v>
       </c>
       <c r="H136">
-        <v>1005.589532197337</v>
+        <v>3986119.856504632</v>
       </c>
       <c r="I136">
-        <v>-439.4237163070104</v>
+        <v>1116034.810615566</v>
       </c>
       <c r="J136">
-        <v>769.2776431978211</v>
+        <v>4841862.829495419</v>
       </c>
       <c r="K136">
-        <v>2215.832533438238</v>
+        <v>3987149.426826855</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5199,34 +5196,34 @@
         <v>88</v>
       </c>
       <c r="B137" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C137" t="s">
         <v>15</v>
       </c>
       <c r="D137" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E137">
         <v>181.142</v>
       </c>
       <c r="F137">
-        <v>49.54084277891953</v>
+        <v>1116413.555941531</v>
       </c>
       <c r="G137">
-        <v>226.6037333420014</v>
+        <v>4841485.484371548</v>
       </c>
       <c r="H137">
-        <v>1013.561554613983</v>
+        <v>3986133.773282143</v>
       </c>
       <c r="I137">
-        <v>-360.5688385475528</v>
+        <v>1116093.330637082</v>
       </c>
       <c r="J137">
-        <v>710.5928064391368</v>
+        <v>4841814.177889103</v>
       </c>
       <c r="K137">
-        <v>2119.896201199414</v>
+        <v>3987029.060348767</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5234,34 +5231,34 @@
         <v>88</v>
       </c>
       <c r="B138" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C138" t="s">
         <v>15</v>
       </c>
       <c r="D138" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E138">
         <v>182.142</v>
       </c>
       <c r="F138">
-        <v>48.45294115198324</v>
+        <v>1116412.4040951</v>
       </c>
       <c r="G138">
-        <v>240.816123622354</v>
+        <v>4841501.997182705</v>
       </c>
       <c r="H138">
-        <v>1021.180097554398</v>
+        <v>3986147.072989735</v>
       </c>
       <c r="I138">
-        <v>-279.772231968426</v>
+        <v>1116153.29166029</v>
       </c>
       <c r="J138">
-        <v>651.9079696804521</v>
+        <v>4841765.526282787</v>
       </c>
       <c r="K138">
-        <v>2011.885854585896</v>
+        <v>3986893.545213724</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5269,34 +5266,34 @@
         <v>88</v>
       </c>
       <c r="B139" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C139" t="s">
         <v>15</v>
       </c>
       <c r="D139" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E139">
         <v>183.142</v>
       </c>
       <c r="F139">
-        <v>47.43365943262305</v>
+        <v>1116411.324901926</v>
       </c>
       <c r="G139">
-        <v>255.0285139027066</v>
+        <v>4841518.509993863</v>
       </c>
       <c r="H139">
-        <v>1028.475181191302</v>
+        <v>3986159.808033691</v>
       </c>
       <c r="I139">
-        <v>-196.9860832838027</v>
+        <v>1116214.729168532</v>
       </c>
       <c r="J139">
-        <v>593.2231329217677</v>
+        <v>4841716.874676473</v>
       </c>
       <c r="K139">
-        <v>1891.801493597686</v>
+        <v>3986742.881421725</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5304,34 +5301,34 @@
         <v>88</v>
       </c>
       <c r="B140" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C140" t="s">
         <v>15</v>
       </c>
       <c r="D140" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E140">
         <v>184.142</v>
       </c>
       <c r="F140">
-        <v>46.47607824285544</v>
+        <v>1116410.311035922</v>
       </c>
       <c r="G140">
-        <v>269.2409041830592</v>
+        <v>4841535.022805021</v>
       </c>
       <c r="H140">
-        <v>1035.473156657564</v>
+        <v>3986172.024415244</v>
       </c>
       <c r="I140">
-        <v>-112.1614018496807</v>
+        <v>1116277.679518892</v>
       </c>
       <c r="J140">
-        <v>534.538296163083</v>
+        <v>4841668.223070157</v>
       </c>
       <c r="K140">
-        <v>1759.643118234783</v>
+        <v>3986577.06897277</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5339,34 +5336,34 @@
         <v>88</v>
       </c>
       <c r="B141" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C141" t="s">
         <v>15</v>
       </c>
       <c r="D141" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E141">
         <v>185.142</v>
       </c>
       <c r="F141">
-        <v>45.57421673790091</v>
+        <v>1116409.3561647</v>
       </c>
       <c r="G141">
-        <v>283.4532944634119</v>
+        <v>4841551.535616179</v>
       </c>
       <c r="H141">
-        <v>1042.197280617115</v>
+        <v>3986183.762733604</v>
       </c>
       <c r="I141">
-        <v>-25.2479906725198</v>
+        <v>1116342.179963717</v>
       </c>
       <c r="J141">
-        <v>475.8534594043983</v>
+        <v>4841619.571463841</v>
       </c>
       <c r="K141">
-        <v>1615.410728497186</v>
+        <v>3986396.10786686</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -5374,34 +5371,34 @@
         <v>88</v>
       </c>
       <c r="B142" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C142" t="s">
         <v>15</v>
       </c>
       <c r="D142" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E142">
         <v>186.142</v>
       </c>
       <c r="F142">
-        <v>44.72287510377252</v>
+        <v>1116408.454782812</v>
       </c>
       <c r="G142">
-        <v>297.6656847437645</v>
+        <v>4841568.048427337</v>
       </c>
       <c r="H142">
-        <v>1048.668181588368</v>
+        <v>3986195.059000023</v>
       </c>
       <c r="I142">
-        <v>63.80558329600677</v>
+        <v>1116408.268672656</v>
       </c>
       <c r="J142">
-        <v>417.168622645714</v>
+        <v>4841570.919857526</v>
       </c>
       <c r="K142">
-        <v>1459.104324384897</v>
+        <v>3986199.998103995</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5409,34 +5406,34 @@
         <v>88</v>
       </c>
       <c r="B143" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C143" t="s">
         <v>15</v>
       </c>
       <c r="D143" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E143">
         <v>187.142</v>
       </c>
       <c r="F143">
-        <v>43.91750818691826</v>
+        <v>1116407.602077948</v>
       </c>
       <c r="G143">
-        <v>311.878075024117</v>
+        <v>4841584.561238496</v>
       </c>
       <c r="H143">
-        <v>1054.904241606313</v>
+        <v>3986205.945304059</v>
       </c>
       <c r="I143">
-        <v>155.0520195957224</v>
+        <v>1116475.984755253</v>
       </c>
       <c r="J143">
-        <v>358.4837858870293</v>
+        <v>4841522.26825121</v>
       </c>
       <c r="K143">
-        <v>1290.723905897915</v>
+        <v>3985988.739684173</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5444,34 +5441,34 @@
         <v>88</v>
       </c>
       <c r="B144" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C144" t="s">
         <v>15</v>
       </c>
       <c r="D144" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E144">
         <v>188.142</v>
       </c>
       <c r="F144">
-        <v>43.15412323830796</v>
+        <v>1116406.793822674</v>
       </c>
       <c r="G144">
-        <v>326.0904653044697</v>
+        <v>4841601.074049653</v>
       </c>
       <c r="H144">
-        <v>1060.92191102325</v>
+        <v>3986216.450363131</v>
       </c>
       <c r="I144">
-        <v>248.5453154441372</v>
+        <v>1116545.368284086</v>
       </c>
       <c r="J144">
-        <v>299.7989491283449</v>
+        <v>4841473.616644896</v>
       </c>
       <c r="K144">
-        <v>1110.26947303624</v>
+        <v>3985762.332607396</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5479,34 +5476,34 @@
         <v>88</v>
       </c>
       <c r="B145" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C145" t="s">
         <v>15</v>
       </c>
       <c r="D145" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E145">
         <v>189.142</v>
       </c>
       <c r="F145">
-        <v>42.42919651781784</v>
+        <v>1116406.026286129</v>
       </c>
       <c r="G145">
-        <v>340.3028555848223</v>
+        <v>4841617.586860811</v>
       </c>
       <c r="H145">
-        <v>1066.735970029343</v>
+        <v>3986226.59997905</v>
       </c>
       <c r="I145">
-        <v>344.3407976905632</v>
+        <v>1116616.460318484</v>
       </c>
       <c r="J145">
-        <v>241.1141123696602</v>
+        <v>4841424.965038579</v>
       </c>
       <c r="K145">
-        <v>917.7410257998713</v>
+        <v>3985520.776873664</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5514,34 +5511,34 @@
         <v>88</v>
       </c>
       <c r="B146" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C146" t="s">
         <v>15</v>
       </c>
       <c r="D146" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E146">
         <v>190.142</v>
       </c>
       <c r="F146">
-        <v>41.73960478243509</v>
+        <v>1116405.296161493</v>
       </c>
       <c r="G146">
-        <v>354.5152458651749</v>
+        <v>4841634.099671969</v>
       </c>
       <c r="H146">
-        <v>1072.359747360871</v>
+        <v>3986236.41741982</v>
       </c>
       <c r="I146">
-        <v>442.4951555570807</v>
+        <v>1116689.302928826</v>
       </c>
       <c r="J146">
-        <v>182.4292756109756</v>
+        <v>4841376.313432264</v>
       </c>
       <c r="K146">
-        <v>713.1385641888102</v>
+        <v>3985264.072482977</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5549,34 +5546,34 @@
         <v>88</v>
       </c>
       <c r="B147" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C147" t="s">
         <v>15</v>
       </c>
       <c r="D147" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E147">
         <v>191.142</v>
       </c>
       <c r="F147">
-        <v>41.08256861851184</v>
+        <v>1116404.600505984</v>
       </c>
       <c r="G147">
-        <v>368.7276361455275</v>
+        <v>4841650.612483127</v>
       </c>
       <c r="H147">
-        <v>1077.805304340535</v>
+        <v>3986245.923740919</v>
       </c>
       <c r="I147">
-        <v>543.0664741857062</v>
+        <v>1116763.939221434</v>
       </c>
       <c r="J147">
-        <v>123.7444388522912</v>
+        <v>4841327.661825949</v>
       </c>
       <c r="K147">
-        <v>496.4620882030566</v>
+        <v>3984992.219435333</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -5584,34 +5581,34 @@
         <v>88</v>
       </c>
       <c r="B148" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C148" t="s">
         <v>15</v>
       </c>
       <c r="D148" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E148">
         <v>192.142</v>
       </c>
       <c r="F148">
-        <v>40.45560527262016</v>
+        <v>1116403.936690917</v>
       </c>
       <c r="G148">
-        <v>382.9400264258801</v>
+        <v>4841667.125294285</v>
       </c>
       <c r="H148">
-        <v>1083.083590642048</v>
+        <v>3986255.138057219</v>
       </c>
       <c r="I148">
-        <v>646.1142690116471</v>
+        <v>1116840.413364084</v>
       </c>
       <c r="J148">
-        <v>65.05960209360653</v>
+        <v>4841279.010219634</v>
       </c>
       <c r="K148">
-        <v>267.7115978426093</v>
+        <v>3984705.217730734</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -5619,34 +5616,34 @@
         <v>88</v>
       </c>
       <c r="B149" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C149" t="s">
         <v>15</v>
       </c>
       <c r="D149" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E149">
         <v>193.142</v>
       </c>
       <c r="F149">
-        <v>39.85648915549627</v>
+        <v>1116403.302359885</v>
       </c>
       <c r="G149">
-        <v>397.1524167062328</v>
+        <v>4841683.638105444</v>
       </c>
       <c r="H149">
-        <v>1088.204576837066</v>
+        <v>3986264.077774369</v>
       </c>
       <c r="I149">
-        <v>751.6995209829431</v>
+        <v>1116918.770612141</v>
       </c>
       <c r="J149">
-        <v>6.374765334921864</v>
+        <v>4841230.358613318</v>
       </c>
       <c r="K149">
-        <v>26.88709310746932</v>
+        <v>3984403.067369179</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -5654,34 +5651,34 @@
         <v>88</v>
       </c>
       <c r="B150" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C150" t="s">
         <v>15</v>
       </c>
       <c r="D150" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E150">
         <v>194.142</v>
       </c>
       <c r="F150">
-        <v>39.28321858665799</v>
+        <v>1116402.695393554</v>
       </c>
       <c r="G150">
-        <v>411.3648069865854</v>
+        <v>4841700.150916601</v>
       </c>
       <c r="H150">
-        <v>1093.177367757394</v>
+        <v>3986272.758786692</v>
       </c>
       <c r="I150">
-        <v>859.8847126473808</v>
+        <v>1116999.057335344</v>
       </c>
       <c r="J150">
-        <v>-52.31007142376252</v>
+        <v>4841181.707007002</v>
       </c>
       <c r="K150">
-        <v>-226.0114260023629</v>
+        <v>3984085.768350669</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -5689,34 +5686,34 @@
         <v>88</v>
       </c>
       <c r="B151" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C151" t="s">
         <v>15</v>
       </c>
       <c r="D151" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E151">
         <v>195.142</v>
       </c>
       <c r="F151">
-        <v>38.73398764714018</v>
+        <v>1116402.113879857</v>
       </c>
       <c r="G151">
-        <v>425.577197266938</v>
+        <v>4841716.663727759</v>
       </c>
       <c r="H151">
-        <v>1098.010299911086</v>
+        <v>3986281.195647252</v>
       </c>
       <c r="I151">
-        <v>970.7338651280044</v>
+        <v>1117081.321045243</v>
       </c>
       <c r="J151">
-        <v>-110.9949081824472</v>
+        <v>4841133.055400687</v>
       </c>
       <c r="K151">
-        <v>-490.9839594868888</v>
+        <v>3983753.320675203</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -5724,34 +5721,34 @@
         <v>88</v>
       </c>
       <c r="B152" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C152" t="s">
         <v>15</v>
       </c>
       <c r="D152" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E152">
         <v>196.142</v>
       </c>
       <c r="F152">
-        <v>38.2071622384551</v>
+        <v>1116401.556088645</v>
       </c>
       <c r="G152">
-        <v>439.7895875472906</v>
+        <v>4841733.176538916</v>
       </c>
       <c r="H152">
-        <v>1102.711025570606</v>
+        <v>3986289.401714636</v>
       </c>
       <c r="I152">
-        <v>1084.312576009114</v>
+        <v>1117165.610423318</v>
       </c>
       <c r="J152">
-        <v>-169.6797449411318</v>
+        <v>4841084.403794372</v>
       </c>
       <c r="K152">
-        <v>-768.0305073461082</v>
+        <v>3983405.724342781</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -5759,34 +5756,34 @@
         <v>88</v>
       </c>
       <c r="B153" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C153" t="s">
         <v>15</v>
       </c>
       <c r="D153" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E153">
         <v>197.142</v>
       </c>
       <c r="F153">
-        <v>37.70125962472936</v>
+        <v>1116401.020450031</v>
       </c>
       <c r="G153">
-        <v>454.0019778276432</v>
+        <v>4841749.689350075</v>
       </c>
       <c r="H153">
-        <v>1107.286585663056</v>
+        <v>3986297.389280209</v>
       </c>
       <c r="I153">
-        <v>1200.688058155172</v>
+        <v>1117251.975349783</v>
       </c>
       <c r="J153">
-        <v>-228.3645816998165</v>
+        <v>4841035.752188056</v>
       </c>
       <c r="K153">
-        <v>-1057.15106958002</v>
+        <v>3983042.979353405</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -5794,34 +5791,34 @@
         <v>88</v>
       </c>
       <c r="B154" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C154" t="s">
         <v>15</v>
       </c>
       <c r="D154" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E154">
         <v>198.142</v>
       </c>
       <c r="F154">
-        <v>37.21493087465756</v>
+        <v>1116400.505535796</v>
       </c>
       <c r="G154">
-        <v>468.2143681079958</v>
+        <v>4841766.202161234</v>
       </c>
       <c r="H154">
-        <v>1111.7434732056</v>
+        <v>3986305.169678843</v>
       </c>
       <c r="I154">
-        <v>1319.929179485596</v>
+        <v>1117340.466933107</v>
       </c>
       <c r="J154">
-        <v>-287.0494184585006</v>
+        <v>4840987.100581741</v>
       </c>
       <c r="K154">
-        <v>-1358.345646188623</v>
+        <v>3982665.085707072</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -5829,34 +5826,34 @@
         <v>88</v>
       </c>
       <c r="B155" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C155" t="s">
         <v>15</v>
       </c>
       <c r="D155" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E155">
         <v>199.142</v>
       </c>
       <c r="F155">
-        <v>36.74694572979465</v>
+        <v>1116400.010043368</v>
       </c>
       <c r="G155">
-        <v>482.4267583883485</v>
+        <v>4841782.714972391</v>
       </c>
       <c r="H155">
-        <v>1116.087688720634</v>
+        <v>3986312.753385664</v>
       </c>
       <c r="I155">
-        <v>1442.106503728963</v>
+        <v>1117431.137540261</v>
       </c>
       <c r="J155">
-        <v>-345.7342552171853</v>
+        <v>4840938.448975425</v>
       </c>
       <c r="K155">
-        <v>-1671.61423717192</v>
+        <v>3982272.043403784</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -5864,34 +5861,34 @@
         <v>88</v>
       </c>
       <c r="B156" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C156" t="s">
         <v>15</v>
       </c>
       <c r="D156" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E156">
         <v>200.142</v>
       </c>
       <c r="F156">
-        <v>36.29617951270832</v>
+        <v>1116399.532781963</v>
       </c>
       <c r="G156">
-        <v>496.6391486687011</v>
+        <v>4841799.22778355</v>
       </c>
       <c r="H156">
-        <v>1120.324788817584</v>
+        <v>3986320.150100859</v>
       </c>
       <c r="I156">
-        <v>1567.292332180745</v>
+        <v>1117524.0408277</v>
       </c>
       <c r="J156">
-        <v>-404.4190919758699</v>
+        <v>4840889.797369109</v>
       </c>
       <c r="K156">
-        <v>-1996.956842529911</v>
+        <v>3981863.85244354</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -5899,34 +5896,34 @@
         <v>88</v>
       </c>
       <c r="B157" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C157" t="s">
         <v>15</v>
       </c>
       <c r="D157" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E157">
         <v>201.142</v>
       </c>
       <c r="F157">
-        <v>35.86160175783406</v>
+        <v>1116399.072660548</v>
       </c>
       <c r="G157">
-        <v>510.8515389490536</v>
+        <v>4841815.740594707</v>
       </c>
       <c r="H157">
-        <v>1124.459928928191</v>
+        <v>3986327.368824275</v>
       </c>
       <c r="I157">
-        <v>1695.560746489302</v>
+        <v>1117619.231773123</v>
       </c>
       <c r="J157">
-        <v>-463.1039287345546</v>
+        <v>4840841.145762795</v>
       </c>
       <c r="K157">
-        <v>-2334.373462262595</v>
+        <v>3981440.51282634</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -5934,34 +5931,34 @@
         <v>88</v>
       </c>
       <c r="B158" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C158" t="s">
         <v>15</v>
       </c>
       <c r="D158" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E158">
         <v>202.142</v>
       </c>
       <c r="F158">
-        <v>35.44226630343636</v>
+        <v>1116398.628677347</v>
       </c>
       <c r="G158">
-        <v>525.0639292294063</v>
+        <v>4841832.253405865</v>
       </c>
       <c r="H158">
-        <v>1128.4979010198</v>
+        <v>3986334.417921261</v>
       </c>
       <c r="I158">
-        <v>1826.98765249543</v>
+        <v>1117716.766708003</v>
       </c>
       <c r="J158">
-        <v>-521.7887654932393</v>
+        <v>4840792.494156479</v>
       </c>
       <c r="K158">
-        <v>-2683.864096369971</v>
+        <v>3981002.024552185</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -5969,34 +5966,34 @@
         <v>88</v>
       </c>
       <c r="B159" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C159" t="s">
         <v>15</v>
       </c>
       <c r="D159" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E159">
         <v>203.142</v>
       </c>
       <c r="F159">
-        <v>35.03730262785963</v>
+        <v>1116398.199910672</v>
       </c>
       <c r="G159">
-        <v>539.2763195097589</v>
+        <v>4841848.766217023</v>
       </c>
       <c r="H159">
-        <v>1132.443166978599</v>
+        <v>3986341.305180943</v>
       </c>
       <c r="I159">
-        <v>1961.650825151421</v>
+        <v>1117816.703350923</v>
       </c>
       <c r="J159">
-        <v>-580.4736022519234</v>
+        <v>4840743.842550164</v>
       </c>
       <c r="K159">
-        <v>-3045.428744852038</v>
+        <v>3980548.387621075</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -6004,1889 +6001,34 @@
         <v>88</v>
       </c>
       <c r="B160" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C160" t="s">
         <v>15</v>
       </c>
       <c r="D160" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E160">
         <v>204.142</v>
       </c>
       <c r="F160">
-        <v>34.64590824954411</v>
+        <v>1116397.785510871</v>
       </c>
       <c r="G160">
-        <v>553.4887097901114</v>
+        <v>4841865.279028182</v>
       </c>
       <c r="H160">
-        <v>1136.299888246032</v>
+        <v>3986348.037867957</v>
       </c>
       <c r="I160">
-        <v>2099.62995454622</v>
+        <v>1117919.100841736</v>
       </c>
       <c r="J160">
-        <v>-639.158439010608</v>
+        <v>4840695.190943847</v>
       </c>
       <c r="K160">
-        <v>-3419.067407708801</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11">
-      <c r="A161">
-        <v>88</v>
-      </c>
-      <c r="B161" t="s">
-        <v>12</v>
-      </c>
-      <c r="C161" t="s">
-        <v>16</v>
-      </c>
-      <c r="D161" t="s">
-        <v>18</v>
-      </c>
-      <c r="E161">
-        <v>152.142</v>
-      </c>
-      <c r="F161">
-        <v>168.3244124260043</v>
-      </c>
-      <c r="G161">
-        <v>-104.3002705460038</v>
-      </c>
-      <c r="H161">
-        <v>1084.57926683847</v>
-      </c>
-      <c r="I161">
-        <v>-407.9352044955677</v>
-      </c>
-      <c r="J161">
-        <v>2207.596411770347</v>
-      </c>
-      <c r="K161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11">
-      <c r="A162">
-        <v>88</v>
-      </c>
-      <c r="B162" t="s">
-        <v>12</v>
-      </c>
-      <c r="C162" t="s">
-        <v>16</v>
-      </c>
-      <c r="D162" t="s">
-        <v>18</v>
-      </c>
-      <c r="E162">
-        <v>153.142</v>
-      </c>
-      <c r="F162">
-        <v>168.3244124260043</v>
-      </c>
-      <c r="G162">
-        <v>-104.3002705460038</v>
-      </c>
-      <c r="H162">
-        <v>1084.57926683847</v>
-      </c>
-      <c r="I162">
-        <v>-399.8814773345334</v>
-      </c>
-      <c r="J162">
-        <v>2153.894875962765</v>
-      </c>
-      <c r="K162">
-        <v>353.9351586792255</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11">
-      <c r="A163">
-        <v>88</v>
-      </c>
-      <c r="B163" t="s">
-        <v>12</v>
-      </c>
-      <c r="C163" t="s">
-        <v>16</v>
-      </c>
-      <c r="D163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E163">
-        <v>154.142</v>
-      </c>
-      <c r="F163">
-        <v>168.3244124260043</v>
-      </c>
-      <c r="G163">
-        <v>-104.3002705460038</v>
-      </c>
-      <c r="H163">
-        <v>1084.57926683847</v>
-      </c>
-      <c r="I163">
-        <v>-391.6294345514519</v>
-      </c>
-      <c r="J163">
-        <v>2100.193340155183</v>
-      </c>
-      <c r="K163">
-        <v>690.2214879661807</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11">
-      <c r="A164">
-        <v>88</v>
-      </c>
-      <c r="B164" t="s">
-        <v>12</v>
-      </c>
-      <c r="C164" t="s">
-        <v>16</v>
-      </c>
-      <c r="D164" t="s">
-        <v>18</v>
-      </c>
-      <c r="E164">
-        <v>155.142</v>
-      </c>
-      <c r="F164">
-        <v>168.3244124260043</v>
-      </c>
-      <c r="G164">
-        <v>-104.3002705460038</v>
-      </c>
-      <c r="H164">
-        <v>1084.57926683847</v>
-      </c>
-      <c r="I164">
-        <v>-383.174192806577</v>
-      </c>
-      <c r="J164">
-        <v>2046.491804347601</v>
-      </c>
-      <c r="K164">
-        <v>1008.858987860868</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11">
-      <c r="A165">
-        <v>88</v>
-      </c>
-      <c r="B165" t="s">
-        <v>12</v>
-      </c>
-      <c r="C165" t="s">
-        <v>16</v>
-      </c>
-      <c r="D165" t="s">
-        <v>18</v>
-      </c>
-      <c r="E165">
-        <v>156.142</v>
-      </c>
-      <c r="F165">
-        <v>168.3244124260043</v>
-      </c>
-      <c r="G165">
-        <v>-104.3002705460038</v>
-      </c>
-      <c r="H165">
-        <v>1084.57926683847</v>
-      </c>
-      <c r="I165">
-        <v>-374.5107485124145</v>
-      </c>
-      <c r="J165">
-        <v>1992.790268540019</v>
-      </c>
-      <c r="K165">
-        <v>1309.847658363285</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11">
-      <c r="A166">
-        <v>88</v>
-      </c>
-      <c r="B166" t="s">
-        <v>12</v>
-      </c>
-      <c r="C166" t="s">
-        <v>16</v>
-      </c>
-      <c r="D166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E166">
-        <v>157.142</v>
-      </c>
-      <c r="F166">
-        <v>168.3244124260043</v>
-      </c>
-      <c r="G166">
-        <v>-104.3002705460038</v>
-      </c>
-      <c r="H166">
-        <v>1084.57926683847</v>
-      </c>
-      <c r="I166">
-        <v>-365.6339748727306</v>
-      </c>
-      <c r="J166">
-        <v>1939.088732732437</v>
-      </c>
-      <c r="K166">
-        <v>1593.187499473435</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11">
-      <c r="A167">
-        <v>88</v>
-      </c>
-      <c r="B167" t="s">
-        <v>12</v>
-      </c>
-      <c r="C167" t="s">
-        <v>16</v>
-      </c>
-      <c r="D167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E167">
-        <v>158.142</v>
-      </c>
-      <c r="F167">
-        <v>168.3244124260043</v>
-      </c>
-      <c r="G167">
-        <v>-104.3002705460038</v>
-      </c>
-      <c r="H167">
-        <v>1084.57926683847</v>
-      </c>
-      <c r="I167">
-        <v>-356.5386188486517</v>
-      </c>
-      <c r="J167">
-        <v>1885.387196924855</v>
-      </c>
-      <c r="K167">
-        <v>1858.878511191316</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11">
-      <c r="A168">
-        <v>88</v>
-      </c>
-      <c r="B168" t="s">
-        <v>12</v>
-      </c>
-      <c r="C168" t="s">
-        <v>16</v>
-      </c>
-      <c r="D168" t="s">
-        <v>18</v>
-      </c>
-      <c r="E168">
-        <v>159.142</v>
-      </c>
-      <c r="F168">
-        <v>168.3244124260043</v>
-      </c>
-      <c r="G168">
-        <v>-104.3002705460038</v>
-      </c>
-      <c r="H168">
-        <v>1084.57926683847</v>
-      </c>
-      <c r="I168">
-        <v>-347.2192980500539</v>
-      </c>
-      <c r="J168">
-        <v>1831.685661117273</v>
-      </c>
-      <c r="K168">
-        <v>2106.920693516927</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11">
-      <c r="A169">
-        <v>88</v>
-      </c>
-      <c r="B169" t="s">
-        <v>12</v>
-      </c>
-      <c r="C169" t="s">
-        <v>16</v>
-      </c>
-      <c r="D169" t="s">
-        <v>18</v>
-      </c>
-      <c r="E169">
-        <v>160.142</v>
-      </c>
-      <c r="F169">
-        <v>168.3244124260043</v>
-      </c>
-      <c r="G169">
-        <v>-87.07736001939136</v>
-      </c>
-      <c r="H169">
-        <v>1084.57926683847</v>
-      </c>
-      <c r="I169">
-        <v>-337.6704975504086</v>
-      </c>
-      <c r="J169">
-        <v>1777.984125309692</v>
-      </c>
-      <c r="K169">
-        <v>2337.314046450269</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11">
-      <c r="A170">
-        <v>88</v>
-      </c>
-      <c r="B170" t="s">
-        <v>12</v>
-      </c>
-      <c r="C170" t="s">
-        <v>16</v>
-      </c>
-      <c r="D170" t="s">
-        <v>18</v>
-      </c>
-      <c r="E170">
-        <v>161.142</v>
-      </c>
-      <c r="F170">
-        <v>130.6393801724381</v>
-      </c>
-      <c r="G170">
-        <v>-69.85444949277893</v>
-      </c>
-      <c r="H170">
-        <v>1336.194358550571</v>
-      </c>
-      <c r="I170">
-        <v>-327.8865666231948</v>
-      </c>
-      <c r="J170">
-        <v>1724.28258950211</v>
-      </c>
-      <c r="K170">
-        <v>2550.058569991341</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11">
-      <c r="A171">
-        <v>88</v>
-      </c>
-      <c r="B171" t="s">
-        <v>12</v>
-      </c>
-      <c r="C171" t="s">
-        <v>16</v>
-      </c>
-      <c r="D171" t="s">
-        <v>18</v>
-      </c>
-      <c r="E171">
-        <v>162.142</v>
-      </c>
-      <c r="F171">
-        <v>108.5013142087602</v>
-      </c>
-      <c r="G171">
-        <v>-52.6315389661665</v>
-      </c>
-      <c r="H171">
-        <v>1486.069175258615</v>
-      </c>
-      <c r="I171">
-        <v>-317.8617153979499</v>
-      </c>
-      <c r="J171">
-        <v>1670.581053694528</v>
-      </c>
-      <c r="K171">
-        <v>2745.154264140146</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11">
-      <c r="A172">
-        <v>88</v>
-      </c>
-      <c r="B172" t="s">
-        <v>12</v>
-      </c>
-      <c r="C172" t="s">
-        <v>16</v>
-      </c>
-      <c r="D172" t="s">
-        <v>18</v>
-      </c>
-      <c r="E172">
-        <v>163.142</v>
-      </c>
-      <c r="F172">
-        <v>94.52614284179435</v>
-      </c>
-      <c r="G172">
-        <v>-35.40862843955407</v>
-      </c>
-      <c r="H172">
-        <v>1593.174577108242</v>
-      </c>
-      <c r="I172">
-        <v>-307.5900114339771</v>
-      </c>
-      <c r="J172">
-        <v>1616.879517886946</v>
-      </c>
-      <c r="K172">
-        <v>2922.601128896682</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11">
-      <c r="A173">
-        <v>88</v>
-      </c>
-      <c r="B173" t="s">
-        <v>12</v>
-      </c>
-      <c r="C173" t="s">
-        <v>16</v>
-      </c>
-      <c r="D173" t="s">
-        <v>18</v>
-      </c>
-      <c r="E173">
-        <v>164.142</v>
-      </c>
-      <c r="F173">
-        <v>84.77991505902337</v>
-      </c>
-      <c r="G173">
-        <v>-18.18571791294163</v>
-      </c>
-      <c r="H173">
-        <v>1676.577496146786</v>
-      </c>
-      <c r="I173">
-        <v>-297.065376209686</v>
-      </c>
-      <c r="J173">
-        <v>1563.177982079364</v>
-      </c>
-      <c r="K173">
-        <v>3082.399164260949</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11">
-      <c r="A174">
-        <v>88</v>
-      </c>
-      <c r="B174" t="s">
-        <v>12</v>
-      </c>
-      <c r="C174" t="s">
-        <v>16</v>
-      </c>
-      <c r="D174" t="s">
-        <v>18</v>
-      </c>
-      <c r="E174">
-        <v>165.142</v>
-      </c>
-      <c r="F174">
-        <v>77.5089372668552</v>
-      </c>
-      <c r="G174">
-        <v>-0.9628073863292151</v>
-      </c>
-      <c r="H174">
-        <v>1744.890956159443</v>
-      </c>
-      <c r="I174">
-        <v>-286.2815815254837</v>
-      </c>
-      <c r="J174">
-        <v>1509.476446271783</v>
-      </c>
-      <c r="K174">
-        <v>3224.548370232946</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11">
-      <c r="A175">
-        <v>88</v>
-      </c>
-      <c r="B175" t="s">
-        <v>12</v>
-      </c>
-      <c r="C175" t="s">
-        <v>16</v>
-      </c>
-      <c r="D175" t="s">
-        <v>18</v>
-      </c>
-      <c r="E175">
-        <v>166.142</v>
-      </c>
-      <c r="F175">
-        <v>71.82404799532614</v>
-      </c>
-      <c r="G175">
-        <v>16.26010314028322</v>
-      </c>
-      <c r="H175">
-        <v>1802.747470149273</v>
-      </c>
-      <c r="I175">
-        <v>-275.232245818092</v>
-      </c>
-      <c r="J175">
-        <v>1455.774910464201</v>
-      </c>
-      <c r="K175">
-        <v>3349.048746812675</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11">
-      <c r="A176">
-        <v>88</v>
-      </c>
-      <c r="B176" t="s">
-        <v>12</v>
-      </c>
-      <c r="C176" t="s">
-        <v>16</v>
-      </c>
-      <c r="D176" t="s">
-        <v>18</v>
-      </c>
-      <c r="E176">
-        <v>167.142</v>
-      </c>
-      <c r="F176">
-        <v>67.22455864429847</v>
-      </c>
-      <c r="G176">
-        <v>33.48301366689565</v>
-      </c>
-      <c r="H176">
-        <v>1852.927458793894</v>
-      </c>
-      <c r="I176">
-        <v>-263.9108303841082</v>
-      </c>
-      <c r="J176">
-        <v>1402.073374656619</v>
-      </c>
-      <c r="K176">
-        <v>3455.900294000134</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11">
-      <c r="A177">
-        <v>88</v>
-      </c>
-      <c r="B177" t="s">
-        <v>12</v>
-      </c>
-      <c r="C177" t="s">
-        <v>16</v>
-      </c>
-      <c r="D177" t="s">
-        <v>18</v>
-      </c>
-      <c r="E177">
-        <v>168.142</v>
-      </c>
-      <c r="F177">
-        <v>63.40534359307728</v>
-      </c>
-      <c r="G177">
-        <v>50.70592419350807</v>
-      </c>
-      <c r="H177">
-        <v>1897.231423271629</v>
-      </c>
-      <c r="I177">
-        <v>-252.3106355105739</v>
-      </c>
-      <c r="J177">
-        <v>1348.371838849037</v>
-      </c>
-      <c r="K177">
-        <v>3545.103011795326</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11">
-      <c r="A178">
-        <v>88</v>
-      </c>
-      <c r="B178" t="s">
-        <v>12</v>
-      </c>
-      <c r="C178" t="s">
-        <v>16</v>
-      </c>
-      <c r="D178" t="s">
-        <v>18</v>
-      </c>
-      <c r="E178">
-        <v>169.142</v>
-      </c>
-      <c r="F178">
-        <v>60.16884619739522</v>
-      </c>
-      <c r="G178">
-        <v>67.92883472012052</v>
-      </c>
-      <c r="H178">
-        <v>1936.892386716298</v>
-      </c>
-      <c r="I178">
-        <v>-240.4247965102622</v>
-      </c>
-      <c r="J178">
-        <v>1294.670303041455</v>
-      </c>
-      <c r="K178">
-        <v>3616.656900198248</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11">
-      <c r="A179">
-        <v>88</v>
-      </c>
-      <c r="B179" t="s">
-        <v>12</v>
-      </c>
-      <c r="C179" t="s">
-        <v>16</v>
-      </c>
-      <c r="D179" t="s">
-        <v>18</v>
-      </c>
-      <c r="E179">
-        <v>170.142</v>
-      </c>
-      <c r="F179">
-        <v>57.38091944488657</v>
-      </c>
-      <c r="G179">
-        <v>85.15174524673294</v>
-      </c>
-      <c r="H179">
-        <v>1972.791857687825</v>
-      </c>
-      <c r="I179">
-        <v>-228.2462796593393</v>
-      </c>
-      <c r="J179">
-        <v>1240.968767233874</v>
-      </c>
-      <c r="K179">
-        <v>3670.5619592089</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11">
-      <c r="A180">
-        <v>88</v>
-      </c>
-      <c r="B180" t="s">
-        <v>12</v>
-      </c>
-      <c r="C180" t="s">
-        <v>16</v>
-      </c>
-      <c r="D180" t="s">
-        <v>18</v>
-      </c>
-      <c r="E180">
-        <v>171.142</v>
-      </c>
-      <c r="F180">
-        <v>54.94691533293584</v>
-      </c>
-      <c r="G180">
-        <v>102.3746557733454</v>
-      </c>
-      <c r="H180">
-        <v>2005.581925341567</v>
-      </c>
-      <c r="I180">
-        <v>-215.7678780349925</v>
-      </c>
-      <c r="J180">
-        <v>1187.267231426292</v>
-      </c>
-      <c r="K180">
-        <v>3706.818188827284</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11">
-      <c r="A181">
-        <v>88</v>
-      </c>
-      <c r="B181" t="s">
-        <v>12</v>
-      </c>
-      <c r="C181" t="s">
-        <v>16</v>
-      </c>
-      <c r="D181" t="s">
-        <v>18</v>
-      </c>
-      <c r="E181">
-        <v>172.142</v>
-      </c>
-      <c r="F181">
-        <v>52.79791975102918</v>
-      </c>
-      <c r="G181">
-        <v>119.5975662999578</v>
-      </c>
-      <c r="H181">
-        <v>2035.758553748642</v>
-      </c>
-      <c r="I181">
-        <v>-202.9822072505651</v>
-      </c>
-      <c r="J181">
-        <v>1133.56569561871</v>
-      </c>
-      <c r="K181">
-        <v>3725.425589053399</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11">
-      <c r="A182">
-        <v>88</v>
-      </c>
-      <c r="B182" t="s">
-        <v>12</v>
-      </c>
-      <c r="C182" t="s">
-        <v>16</v>
-      </c>
-      <c r="D182" t="s">
-        <v>18</v>
-      </c>
-      <c r="E182">
-        <v>173.142</v>
-      </c>
-      <c r="F182">
-        <v>50.88241915001561</v>
-      </c>
-      <c r="G182">
-        <v>136.8204768265702</v>
-      </c>
-      <c r="H182">
-        <v>2063.707759024483</v>
-      </c>
-      <c r="I182">
-        <v>-189.8817010856726</v>
-      </c>
-      <c r="J182">
-        <v>1079.864159811128</v>
-      </c>
-      <c r="K182">
-        <v>3726.384159887245</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11">
-      <c r="A183">
-        <v>88</v>
-      </c>
-      <c r="B183" t="s">
-        <v>12</v>
-      </c>
-      <c r="C183" t="s">
-        <v>16</v>
-      </c>
-      <c r="D183" t="s">
-        <v>18</v>
-      </c>
-      <c r="E183">
-        <v>174.142</v>
-      </c>
-      <c r="F183">
-        <v>49.16103934691181</v>
-      </c>
-      <c r="G183">
-        <v>154.0433873531827</v>
-      </c>
-      <c r="H183">
-        <v>2089.735883428313</v>
-      </c>
-      <c r="I183">
-        <v>-176.4586070087144</v>
-      </c>
-      <c r="J183">
-        <v>1026.162624003546</v>
-      </c>
-      <c r="K183">
-        <v>3709.693901328822</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11">
-      <c r="A184">
-        <v>88</v>
-      </c>
-      <c r="B184" t="s">
-        <v>12</v>
-      </c>
-      <c r="C184" t="s">
-        <v>16</v>
-      </c>
-      <c r="D184" t="s">
-        <v>18</v>
-      </c>
-      <c r="E184">
-        <v>175.142</v>
-      </c>
-      <c r="F184">
-        <v>47.60310380741709</v>
-      </c>
-      <c r="G184">
-        <v>171.2662978797951</v>
-      </c>
-      <c r="H184">
-        <v>2114.090117265986</v>
-      </c>
-      <c r="I184">
-        <v>-162.7049815891311</v>
-      </c>
-      <c r="J184">
-        <v>972.4610881959645</v>
-      </c>
-      <c r="K184">
-        <v>3675.354813378131</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11">
-      <c r="A185">
-        <v>88</v>
-      </c>
-      <c r="B185" t="s">
-        <v>12</v>
-      </c>
-      <c r="C185" t="s">
-        <v>16</v>
-      </c>
-      <c r="D185" t="s">
-        <v>18</v>
-      </c>
-      <c r="E185">
-        <v>176.142</v>
-      </c>
-      <c r="F185">
-        <v>46.1843125986581</v>
-      </c>
-      <c r="G185">
-        <v>188.4892084064076</v>
-      </c>
-      <c r="H185">
-        <v>2136.972811263951</v>
-      </c>
-      <c r="I185">
-        <v>-148.6126857966939</v>
-      </c>
-      <c r="J185">
-        <v>918.7595523883825</v>
-      </c>
-      <c r="K185">
-        <v>3623.36689603517</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11">
-      <c r="A186">
-        <v>88</v>
-      </c>
-      <c r="B186" t="s">
-        <v>12</v>
-      </c>
-      <c r="C186" t="s">
-        <v>16</v>
-      </c>
-      <c r="D186" t="s">
-        <v>18</v>
-      </c>
-      <c r="E186">
-        <v>177.142</v>
-      </c>
-      <c r="F186">
-        <v>44.88513528719916</v>
-      </c>
-      <c r="G186">
-        <v>205.71211893302</v>
-      </c>
-      <c r="H186">
-        <v>2158.551705987206</v>
-      </c>
-      <c r="I186">
-        <v>-134.1733801850425</v>
-      </c>
-      <c r="J186">
-        <v>865.0580165808007</v>
-      </c>
-      <c r="K186">
-        <v>3553.73014929994</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11">
-      <c r="A187">
-        <v>88</v>
-      </c>
-      <c r="B187" t="s">
-        <v>12</v>
-      </c>
-      <c r="C187" t="s">
-        <v>16</v>
-      </c>
-      <c r="D187" t="s">
-        <v>18</v>
-      </c>
-      <c r="E187">
-        <v>178.142</v>
-      </c>
-      <c r="F187">
-        <v>43.68967221769466</v>
-      </c>
-      <c r="G187">
-        <v>222.9350294596324</v>
-      </c>
-      <c r="H187">
-        <v>2178.967400893317</v>
-      </c>
-      <c r="I187">
-        <v>-119.3785199566217</v>
-      </c>
-      <c r="J187">
-        <v>811.356480773219</v>
-      </c>
-      <c r="K187">
-        <v>3466.444573172442</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11">
-      <c r="A188">
-        <v>88</v>
-      </c>
-      <c r="B188" t="s">
-        <v>12</v>
-      </c>
-      <c r="C188" t="s">
-        <v>16</v>
-      </c>
-      <c r="D188" t="s">
-        <v>18</v>
-      </c>
-      <c r="E188">
-        <v>179.142</v>
-      </c>
-      <c r="F188">
-        <v>42.5848310886565</v>
-      </c>
-      <c r="G188">
-        <v>240.1579399862448</v>
-      </c>
-      <c r="H188">
-        <v>2198.338911283019</v>
-      </c>
-      <c r="I188">
-        <v>-104.2193499060978</v>
-      </c>
-      <c r="J188">
-        <v>757.654944965637</v>
-      </c>
-      <c r="K188">
-        <v>3361.510167652674</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11">
-      <c r="A189">
-        <v>88</v>
-      </c>
-      <c r="B189" t="s">
-        <v>12</v>
-      </c>
-      <c r="C189" t="s">
-        <v>16</v>
-      </c>
-      <c r="D189" t="s">
-        <v>18</v>
-      </c>
-      <c r="E189">
-        <v>180.142</v>
-      </c>
-      <c r="F189">
-        <v>41.55972066711789</v>
-      </c>
-      <c r="G189">
-        <v>257.3808505128573</v>
-      </c>
-      <c r="H189">
-        <v>2216.767872052435</v>
-      </c>
-      <c r="I189">
-        <v>-88.68689923926046</v>
-      </c>
-      <c r="J189">
-        <v>703.9534091580551</v>
-      </c>
-      <c r="K189">
-        <v>3238.926932740637</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11">
-      <c r="A190">
-        <v>88</v>
-      </c>
-      <c r="B190" t="s">
-        <v>12</v>
-      </c>
-      <c r="C190" t="s">
-        <v>16</v>
-      </c>
-      <c r="D190" t="s">
-        <v>18</v>
-      </c>
-      <c r="E190">
-        <v>181.142</v>
-      </c>
-      <c r="F190">
-        <v>40.60519710956373</v>
-      </c>
-      <c r="G190">
-        <v>274.6037610394697</v>
-      </c>
-      <c r="H190">
-        <v>2234.341765378359</v>
-      </c>
-      <c r="I190">
-        <v>-72.7719762643449</v>
-      </c>
-      <c r="J190">
-        <v>650.2518733504735</v>
-      </c>
-      <c r="K190">
-        <v>3098.694868436332</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11">
-      <c r="A191">
-        <v>88</v>
-      </c>
-      <c r="B191" t="s">
-        <v>12</v>
-      </c>
-      <c r="C191" t="s">
-        <v>16</v>
-      </c>
-      <c r="D191" t="s">
-        <v>18</v>
-      </c>
-      <c r="E191">
-        <v>182.142</v>
-      </c>
-      <c r="F191">
-        <v>39.71351950539587</v>
-      </c>
-      <c r="G191">
-        <v>291.8266715660822</v>
-      </c>
-      <c r="H191">
-        <v>2251.136432269193</v>
-      </c>
-      <c r="I191">
-        <v>-56.46516295263272</v>
-      </c>
-      <c r="J191">
-        <v>596.5503375428915</v>
-      </c>
-      <c r="K191">
-        <v>2940.813974739757</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11">
-      <c r="A192">
-        <v>88</v>
-      </c>
-      <c r="B192" t="s">
-        <v>12</v>
-      </c>
-      <c r="C192" t="s">
-        <v>16</v>
-      </c>
-      <c r="D192" t="s">
-        <v>18</v>
-      </c>
-      <c r="E192">
-        <v>183.142</v>
-      </c>
-      <c r="F192">
-        <v>38.8780848861365</v>
-      </c>
-      <c r="G192">
-        <v>309.0495820926945</v>
-      </c>
-      <c r="H192">
-        <v>2267.218050576107</v>
-      </c>
-      <c r="I192">
-        <v>-39.75680936511269</v>
-      </c>
-      <c r="J192">
-        <v>542.8488017353098</v>
-      </c>
-      <c r="K192">
-        <v>2765.284251650914</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11">
-      <c r="A193">
-        <v>88</v>
-      </c>
-      <c r="B193" t="s">
-        <v>12</v>
-      </c>
-      <c r="C193" t="s">
-        <v>16</v>
-      </c>
-      <c r="D193" t="s">
-        <v>18</v>
-      </c>
-      <c r="E193">
-        <v>184.142</v>
-      </c>
-      <c r="F193">
-        <v>38.09322191696089</v>
-      </c>
-      <c r="G193">
-        <v>326.2724926193069</v>
-      </c>
-      <c r="H193">
-        <v>2282.64470994986</v>
-      </c>
-      <c r="I193">
-        <v>-22.6370279419034</v>
-      </c>
-      <c r="J193">
-        <v>489.147265927728</v>
-      </c>
-      <c r="K193">
-        <v>2572.105699169802</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11">
-      <c r="A194">
-        <v>88</v>
-      </c>
-      <c r="B194" t="s">
-        <v>12</v>
-      </c>
-      <c r="C194" t="s">
-        <v>16</v>
-      </c>
-      <c r="D194" t="s">
-        <v>18</v>
-      </c>
-      <c r="E194">
-        <v>185.142</v>
-      </c>
-      <c r="F194">
-        <v>37.35402851369911</v>
-      </c>
-      <c r="G194">
-        <v>343.4954031459194</v>
-      </c>
-      <c r="H194">
-        <v>2297.467678451392</v>
-      </c>
-      <c r="I194">
-        <v>-5.095687651057783</v>
-      </c>
-      <c r="J194">
-        <v>435.445730120146</v>
-      </c>
-      <c r="K194">
-        <v>2361.27831729642</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11">
-      <c r="A195">
-        <v>88</v>
-      </c>
-      <c r="B195" t="s">
-        <v>12</v>
-      </c>
-      <c r="C195" t="s">
-        <v>16</v>
-      </c>
-      <c r="D195" t="s">
-        <v>18</v>
-      </c>
-      <c r="E195">
-        <v>186.142</v>
-      </c>
-      <c r="F195">
-        <v>36.65624274901948</v>
-      </c>
-      <c r="G195">
-        <v>360.7183136725318</v>
-      </c>
-      <c r="H195">
-        <v>2311.73243053663</v>
-      </c>
-      <c r="I195">
-        <v>12.87759200671281</v>
-      </c>
-      <c r="J195">
-        <v>381.7441943125644</v>
-      </c>
-      <c r="K195">
-        <v>2132.802106030771</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11">
-      <c r="A196">
-        <v>88</v>
-      </c>
-      <c r="B196" t="s">
-        <v>12</v>
-      </c>
-      <c r="C196" t="s">
-        <v>16</v>
-      </c>
-      <c r="D196" t="s">
-        <v>18</v>
-      </c>
-      <c r="E196">
-        <v>187.142</v>
-      </c>
-      <c r="F196">
-        <v>35.99613927540026</v>
-      </c>
-      <c r="G196">
-        <v>377.9412241991442</v>
-      </c>
-      <c r="H196">
-        <v>2325.479488409999</v>
-      </c>
-      <c r="I196">
-        <v>31.29344714094188</v>
-      </c>
-      <c r="J196">
-        <v>328.0426585049825</v>
-      </c>
-      <c r="K196">
-        <v>1886.677065372852</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11">
-      <c r="A197">
-        <v>88</v>
-      </c>
-      <c r="B197" t="s">
-        <v>12</v>
-      </c>
-      <c r="C197" t="s">
-        <v>16</v>
-      </c>
-      <c r="D197" t="s">
-        <v>18</v>
-      </c>
-      <c r="E197">
-        <v>188.142</v>
-      </c>
-      <c r="F197">
-        <v>35.37044551304091</v>
-      </c>
-      <c r="G197">
-        <v>395.1641347257567</v>
-      </c>
-      <c r="H197">
-        <v>2338.745115985645</v>
-      </c>
-      <c r="I197">
-        <v>50.16277576557545</v>
-      </c>
-      <c r="J197">
-        <v>274.3411226974007</v>
-      </c>
-      <c r="K197">
-        <v>1622.903195322664</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11">
-      <c r="A198">
-        <v>88</v>
-      </c>
-      <c r="B198" t="s">
-        <v>12</v>
-      </c>
-      <c r="C198" t="s">
-        <v>16</v>
-      </c>
-      <c r="D198" t="s">
-        <v>18</v>
-      </c>
-      <c r="E198">
-        <v>189.142</v>
-      </c>
-      <c r="F198">
-        <v>34.77627329625301</v>
-      </c>
-      <c r="G198">
-        <v>412.3870452523691</v>
-      </c>
-      <c r="H198">
-        <v>2351.561895395393</v>
-      </c>
-      <c r="I198">
-        <v>69.49674424812639</v>
-      </c>
-      <c r="J198">
-        <v>220.6395868898188</v>
-      </c>
-      <c r="K198">
-        <v>1341.480495880207</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11">
-      <c r="A199">
-        <v>88</v>
-      </c>
-      <c r="B199" t="s">
-        <v>12</v>
-      </c>
-      <c r="C199" t="s">
-        <v>16</v>
-      </c>
-      <c r="D199" t="s">
-        <v>18</v>
-      </c>
-      <c r="E199">
-        <v>190.142</v>
-      </c>
-      <c r="F199">
-        <v>34.21106271908743</v>
-      </c>
-      <c r="G199">
-        <v>429.6099557789815</v>
-      </c>
-      <c r="H199">
-        <v>2363.95920911928</v>
-      </c>
-      <c r="I199">
-        <v>89.30679391763547</v>
-      </c>
-      <c r="J199">
-        <v>166.9380510822369</v>
-      </c>
-      <c r="K199">
-        <v>1042.408967045481</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11">
-      <c r="A200">
-        <v>88</v>
-      </c>
-      <c r="B200" t="s">
-        <v>12</v>
-      </c>
-      <c r="C200" t="s">
-        <v>16</v>
-      </c>
-      <c r="D200" t="s">
-        <v>18</v>
-      </c>
-      <c r="E200">
-        <v>191.142</v>
-      </c>
-      <c r="F200">
-        <v>33.67253568870821</v>
-      </c>
-      <c r="G200">
-        <v>446.832866305594</v>
-      </c>
-      <c r="H200">
-        <v>2375.963645692494</v>
-      </c>
-      <c r="I200">
-        <v>109.6046478353444</v>
-      </c>
-      <c r="J200">
-        <v>113.2365152746553</v>
-      </c>
-      <c r="K200">
-        <v>725.6886088184864</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11">
-      <c r="A201">
-        <v>88</v>
-      </c>
-      <c r="B201" t="s">
-        <v>12</v>
-      </c>
-      <c r="C201" t="s">
-        <v>16</v>
-      </c>
-      <c r="D201" t="s">
-        <v>18</v>
-      </c>
-      <c r="E201">
-        <v>192.142</v>
-      </c>
-      <c r="F201">
-        <v>33.15865726411193</v>
-      </c>
-      <c r="G201">
-        <v>464.0557768322064</v>
-      </c>
-      <c r="H201">
-        <v>2387.599343079997</v>
-      </c>
-      <c r="I201">
-        <v>130.4023177320942</v>
-      </c>
-      <c r="J201">
-        <v>59.53497946707335</v>
-      </c>
-      <c r="K201">
-        <v>391.3194211992221</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11">
-      <c r="A202">
-        <v>88</v>
-      </c>
-      <c r="B202" t="s">
-        <v>12</v>
-      </c>
-      <c r="C202" t="s">
-        <v>16</v>
-      </c>
-      <c r="D202" t="s">
-        <v>18</v>
-      </c>
-      <c r="E202">
-        <v>193.142</v>
-      </c>
-      <c r="F202">
-        <v>32.66760328394663</v>
-      </c>
-      <c r="G202">
-        <v>481.2786873588189</v>
-      </c>
-      <c r="H202">
-        <v>2398.88828086909</v>
-      </c>
-      <c r="I202">
-        <v>151.7121111165457</v>
-      </c>
-      <c r="J202">
-        <v>5.833443659491426</v>
-      </c>
-      <c r="K202">
-        <v>39.30140418768919</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11">
-      <c r="A203">
-        <v>88</v>
-      </c>
-      <c r="B203" t="s">
-        <v>12</v>
-      </c>
-      <c r="C203" t="s">
-        <v>16</v>
-      </c>
-      <c r="D203" t="s">
-        <v>18</v>
-      </c>
-      <c r="E203">
-        <v>194.142</v>
-      </c>
-      <c r="F203">
-        <v>32.19773310937835</v>
-      </c>
-      <c r="G203">
-        <v>498.5015978854313</v>
-      </c>
-      <c r="H203">
-        <v>2409.850530170283</v>
-      </c>
-      <c r="I203">
-        <v>173.5466385584388</v>
-      </c>
-      <c r="J203">
-        <v>-47.86809214809024</v>
-      </c>
-      <c r="K203">
-        <v>-330.3654422161117</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11">
-      <c r="A204">
-        <v>88</v>
-      </c>
-      <c r="B204" t="s">
-        <v>12</v>
-      </c>
-      <c r="C204" t="s">
-        <v>16</v>
-      </c>
-      <c r="D204" t="s">
-        <v>18</v>
-      </c>
-      <c r="E204">
-        <v>195.142</v>
-      </c>
-      <c r="F204">
-        <v>31.74756655372821</v>
-      </c>
-      <c r="G204">
-        <v>515.7245084120436</v>
-      </c>
-      <c r="H204">
-        <v>2420.504468365824</v>
-      </c>
-      <c r="I204">
-        <v>195.9188211511917</v>
-      </c>
-      <c r="J204">
-        <v>-101.5696279556722</v>
-      </c>
-      <c r="K204">
-        <v>-717.6811180121825</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11">
-      <c r="A205">
-        <v>88</v>
-      </c>
-      <c r="B205" t="s">
-        <v>12</v>
-      </c>
-      <c r="C205" t="s">
-        <v>16</v>
-      </c>
-      <c r="D205" t="s">
-        <v>18</v>
-      </c>
-      <c r="E205">
-        <v>196.142</v>
-      </c>
-      <c r="F205">
-        <v>31.31576425966053</v>
-      </c>
-      <c r="G205">
-        <v>532.9474189386561</v>
-      </c>
-      <c r="H205">
-        <v>2430.86696447752</v>
-      </c>
-      <c r="I205">
-        <v>218.8418981582607</v>
-      </c>
-      <c r="J205">
-        <v>-155.2711637632541</v>
-      </c>
-      <c r="K205">
-        <v>-1122.645623200523</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11">
-      <c r="A206">
-        <v>88</v>
-      </c>
-      <c r="B206" t="s">
-        <v>12</v>
-      </c>
-      <c r="C206" t="s">
-        <v>16</v>
-      </c>
-      <c r="D206" t="s">
-        <v>18</v>
-      </c>
-      <c r="E206">
-        <v>197.142</v>
-      </c>
-      <c r="F206">
-        <v>30.90111093128965</v>
-      </c>
-      <c r="G206">
-        <v>550.1703294652685</v>
-      </c>
-      <c r="H206">
-        <v>2440.953539849307</v>
-      </c>
-      <c r="I206">
-        <v>242.3294348477846</v>
-      </c>
-      <c r="J206">
-        <v>-208.972699570836</v>
-      </c>
-      <c r="K206">
-        <v>-1545.258957781132</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11">
-      <c r="A207">
-        <v>88</v>
-      </c>
-      <c r="B207" t="s">
-        <v>12</v>
-      </c>
-      <c r="C207" t="s">
-        <v>16</v>
-      </c>
-      <c r="D207" t="s">
-        <v>18</v>
-      </c>
-      <c r="E207">
-        <v>198.142</v>
-      </c>
-      <c r="F207">
-        <v>30.50250094306563</v>
-      </c>
-      <c r="G207">
-        <v>567.3932399918809</v>
-      </c>
-      <c r="H207">
-        <v>2450.778507987224</v>
-      </c>
-      <c r="I207">
-        <v>266.3953305201503</v>
-      </c>
-      <c r="J207">
-        <v>-262.6742353784174</v>
-      </c>
-      <c r="K207">
-        <v>-1985.521121754007</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11">
-      <c r="A208">
-        <v>88</v>
-      </c>
-      <c r="B208" t="s">
-        <v>12</v>
-      </c>
-      <c r="C208" t="s">
-        <v>16</v>
-      </c>
-      <c r="D208" t="s">
-        <v>18</v>
-      </c>
-      <c r="E208">
-        <v>199.142</v>
-      </c>
-      <c r="F208">
-        <v>30.1189259373616</v>
-      </c>
-      <c r="G208">
-        <v>584.6161505184934</v>
-      </c>
-      <c r="H208">
-        <v>2460.355096719166</v>
-      </c>
-      <c r="I208">
-        <v>291.0538267332303</v>
-      </c>
-      <c r="J208">
-        <v>-316.3757711859993</v>
-      </c>
-      <c r="K208">
-        <v>-2443.432115119153</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11">
-      <c r="A209">
-        <v>88</v>
-      </c>
-      <c r="B209" t="s">
-        <v>12</v>
-      </c>
-      <c r="C209" t="s">
-        <v>16</v>
-      </c>
-      <c r="D209" t="s">
-        <v>18</v>
-      </c>
-      <c r="E209">
-        <v>200.142</v>
-      </c>
-      <c r="F209">
-        <v>29.74946409399323</v>
-      </c>
-      <c r="G209">
-        <v>601.8390610451058</v>
-      </c>
-      <c r="H209">
-        <v>2469.695555290831</v>
-      </c>
-      <c r="I209">
-        <v>316.3195157301566</v>
-      </c>
-      <c r="J209">
-        <v>-370.0773069935813</v>
-      </c>
-      <c r="K209">
-        <v>-2918.99193787657</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11">
-      <c r="A210">
-        <v>88</v>
-      </c>
-      <c r="B210" t="s">
-        <v>12</v>
-      </c>
-      <c r="C210" t="s">
-        <v>16</v>
-      </c>
-      <c r="D210" t="s">
-        <v>18</v>
-      </c>
-      <c r="E210">
-        <v>201.142</v>
-      </c>
-      <c r="F210">
-        <v>29.39327081171806</v>
-      </c>
-      <c r="G210">
-        <v>619.0619715717182</v>
-      </c>
-      <c r="H210">
-        <v>2478.811248573356</v>
-      </c>
-      <c r="I210">
-        <v>342.2073490746246</v>
-      </c>
-      <c r="J210">
-        <v>-423.7788428011632</v>
-      </c>
-      <c r="K210">
-        <v>-3412.200590026255</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11">
-      <c r="A211">
-        <v>88</v>
-      </c>
-      <c r="B211" t="s">
-        <v>12</v>
-      </c>
-      <c r="C211" t="s">
-        <v>16</v>
-      </c>
-      <c r="D211" t="s">
-        <v>18</v>
-      </c>
-      <c r="E211">
-        <v>202.142</v>
-      </c>
-      <c r="F211">
-        <v>29.04957058730257</v>
-      </c>
-      <c r="G211">
-        <v>636.2848820983307</v>
-      </c>
-      <c r="H211">
-        <v>2487.712740200227</v>
-      </c>
-      <c r="I211">
-        <v>368.7326464988304</v>
-      </c>
-      <c r="J211">
-        <v>-477.4803786087451</v>
-      </c>
-      <c r="K211">
-        <v>-3923.058071568208</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11">
-      <c r="A212">
-        <v>88</v>
-      </c>
-      <c r="B212" t="s">
-        <v>12</v>
-      </c>
-      <c r="C212" t="s">
-        <v>16</v>
-      </c>
-      <c r="D212" t="s">
-        <v>18</v>
-      </c>
-      <c r="E212">
-        <v>203.142</v>
-      </c>
-      <c r="F212">
-        <v>28.7176499144471</v>
-      </c>
-      <c r="G212">
-        <v>653.5077926249431</v>
-      </c>
-      <c r="H212">
-        <v>2496.409866158824</v>
-      </c>
-      <c r="I212">
-        <v>395.9111049692805</v>
-      </c>
-      <c r="J212">
-        <v>-531.1819144163265</v>
-      </c>
-      <c r="K212">
-        <v>-4451.564382502427</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11">
-      <c r="A213">
-        <v>88</v>
-      </c>
-      <c r="B213" t="s">
-        <v>12</v>
-      </c>
-      <c r="C213" t="s">
-        <v>16</v>
-      </c>
-      <c r="D213" t="s">
-        <v>18</v>
-      </c>
-      <c r="E213">
-        <v>204.142</v>
-      </c>
-      <c r="F213">
-        <v>28.39685105460535</v>
-      </c>
-      <c r="G213">
-        <v>670.7307031515555</v>
-      </c>
-      <c r="H213">
-        <v>2504.911800122303</v>
-      </c>
-      <c r="I213">
-        <v>423.7588079758427</v>
-      </c>
-      <c r="J213">
-        <v>-584.8834502239084</v>
-      </c>
-      <c r="K213">
-        <v>-4997.719522828918</v>
+        <v>3980079.602033009</v>
       </c>
     </row>
   </sheetData>
